--- a/Assignment 2/Assignment2.xlsx
+++ b/Assignment 2/Assignment2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blopesdossanto/Documents/01 TU Delft/02 Education/02 Courses/2017:2018/AE4424 Network Scheduling/Assignments/Assignment 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Claudia/Documents/4-MSc-1/Q3/AE4424 Network Scheduling)/networkscheduling/Assignment 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D4C106BF-FC91-D247-AAAD-65D880264221}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28700" windowHeight="16760" tabRatio="917" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28700" windowHeight="16760" tabRatio="917" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Flight" sheetId="4" r:id="rId1"/>
@@ -23,8 +22,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Itinerary!$A$1:$G$738</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Recapture Rate'!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -905,16 +907,16 @@
     <t>AR1462</t>
   </si>
   <si>
-    <t>TAT (min)</t>
+    <t>NA</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>TAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
@@ -1397,10 +1399,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="177" workbookViewId="0">
+    <sheetView topLeftCell="A50" zoomScale="177" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -1525,10 +1527,10 @@
         <v>24304.697082245941</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1554,10 +1556,10 @@
         <v>24878.728342268336</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -1612,10 +1614,10 @@
         <v>24569.026365737587</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -1641,10 +1643,10 @@
         <v>25180.760278206115</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -2192,10 +2194,10 @@
         <v>23644.928160775198</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -2221,10 +2223,10 @@
         <v>22823.472153779698</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -2250,10 +2252,10 @@
         <v>21734.155941971418</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -2279,10 +2281,10 @@
         <v>22131.646837855755</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -2308,10 +2310,10 @@
         <v>22260.833059888217</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -2337,10 +2339,10 @@
         <v>21868.364445541421</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -2366,7 +2368,7 @@
         <v>19880.594236936093</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I33" s="13">
         <v>13948.575562453854</v>
@@ -2540,10 +2542,10 @@
         <v>20740.622940902613</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -2569,10 +2571,10 @@
         <v>20815.035940420501</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -7731,10 +7733,10 @@
         <v>23924.402515464062</v>
       </c>
       <c r="H218" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I218" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.15">
@@ -7760,10 +7762,10 @@
         <v>23924.402515464062</v>
       </c>
       <c r="H219" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I219" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.15">
@@ -8176,16 +8178,11 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G738"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -24487,7 +24484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29609,11 +29606,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -29629,7 +29626,7 @@
         <v>281</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">

--- a/Assignment 2/Assignment2.xlsx
+++ b/Assignment 2/Assignment2.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luka\Documents\networkscheduling\Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4726F46F-0CDD-42A6-ACEB-2A860A070FA5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC65A2E6-0540-4A10-BD1C-B321A3858D2D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="28704" windowHeight="16764" tabRatio="917" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28704" windowHeight="16764" tabRatio="917" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flight" sheetId="4" r:id="rId1"/>
     <sheet name="Itinerary" sheetId="10" r:id="rId2"/>
     <sheet name="Recapture Rate" sheetId="11" r:id="rId3"/>
     <sheet name="Aircraft" sheetId="9" r:id="rId4"/>
+    <sheet name="New Flight" sheetId="12" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Flight!$A$1:$I$233</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3472" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4172" uniqueCount="295">
   <si>
     <t>Origin</t>
   </si>
@@ -919,6 +920,9 @@
   <si>
     <t>To (USED)</t>
   </si>
+  <si>
+    <t>All by bus!</t>
+  </si>
 </sst>
 </file>
 
@@ -942,12 +946,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -962,7 +972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -999,6 +1009,12 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1410,7 +1426,7 @@
   <dimension ref="A1:I233"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8192,7 +8208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H738"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A710" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="K728" sqref="K728"/>
     </sheetView>
   </sheetViews>
@@ -27442,7 +27458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H300"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -35043,4 +35059,3227 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BA4A27-5B66-45EC-9E0C-6280F908EA0A}">
+  <dimension ref="A1:F233"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="G205" sqref="G205"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assignment 2/Assignment2.xlsx
+++ b/Assignment 2/Assignment2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luka\Documents\networkscheduling\Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC65A2E6-0540-4A10-BD1C-B321A3858D2D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD719AF-211F-450B-B234-A90D81E8B9F6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="28704" windowHeight="16764" tabRatio="917" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28704" windowHeight="16764" tabRatio="917" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flight" sheetId="4" r:id="rId1"/>
@@ -1425,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I233"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A219" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C238" sqref="C238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8209,7 +8209,7 @@
   <dimension ref="A1:H738"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="K728" sqref="K728"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8292,7 +8292,7 @@
         <v>39</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="0">A3+1</f>
+        <f>A3+1</f>
         <v>2</v>
       </c>
     </row>
@@ -8316,7 +8316,7 @@
         <v>57</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f>A4+1</f>
         <v>3</v>
       </c>
     </row>
@@ -8343,7 +8343,7 @@
         <v>59</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f>A5+1</f>
         <v>4</v>
       </c>
     </row>
@@ -8370,7 +8370,7 @@
         <v>70</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f>A6+1</f>
         <v>5</v>
       </c>
     </row>
@@ -8397,7 +8397,7 @@
         <v>72</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f>A7+1</f>
         <v>6</v>
       </c>
     </row>
@@ -8424,7 +8424,7 @@
         <v>77</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f>A8+1</f>
         <v>7</v>
       </c>
     </row>
@@ -8451,7 +8451,7 @@
         <v>80</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f>A9+1</f>
         <v>8</v>
       </c>
     </row>
@@ -8475,7 +8475,7 @@
         <v>81</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f>A10+1</f>
         <v>9</v>
       </c>
     </row>
@@ -8502,7 +8502,7 @@
         <v>59</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f>A11+1</f>
         <v>10</v>
       </c>
     </row>
@@ -8529,7 +8529,7 @@
         <v>70</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f>A12+1</f>
         <v>11</v>
       </c>
     </row>
@@ -8556,7 +8556,7 @@
         <v>72</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f>A13+1</f>
         <v>12</v>
       </c>
     </row>
@@ -8583,7 +8583,7 @@
         <v>77</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <f>A14+1</f>
         <v>13</v>
       </c>
     </row>
@@ -8610,7 +8610,7 @@
         <v>80</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f>A15+1</f>
         <v>14</v>
       </c>
     </row>
@@ -8634,7 +8634,7 @@
         <v>22</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f>A16+1</f>
         <v>15</v>
       </c>
     </row>
@@ -8661,7 +8661,7 @@
         <v>168</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
+        <f>A17+1</f>
         <v>16</v>
       </c>
     </row>
@@ -8688,7 +8688,7 @@
         <v>65</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
+        <f>A18+1</f>
         <v>17</v>
       </c>
     </row>
@@ -8715,7 +8715,7 @@
         <v>66</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
+        <f>A19+1</f>
         <v>18</v>
       </c>
     </row>
@@ -8742,7 +8742,7 @@
         <v>69</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
+        <f>A20+1</f>
         <v>19</v>
       </c>
     </row>
@@ -8769,7 +8769,7 @@
         <v>74</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
+        <f>A21+1</f>
         <v>20</v>
       </c>
     </row>
@@ -8796,7 +8796,7 @@
         <v>78</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
+        <f>A22+1</f>
         <v>21</v>
       </c>
     </row>
@@ -8820,7 +8820,7 @@
         <v>24</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
+        <f>A23+1</f>
         <v>22</v>
       </c>
     </row>
@@ -8844,7 +8844,7 @@
         <v>25</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
+        <f>A24+1</f>
         <v>23</v>
       </c>
     </row>
@@ -8871,7 +8871,7 @@
         <v>40</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
+        <f>A25+1</f>
         <v>24</v>
       </c>
     </row>
@@ -8898,7 +8898,7 @@
         <v>41</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
+        <f>A26+1</f>
         <v>25</v>
       </c>
     </row>
@@ -8925,7 +8925,7 @@
         <v>43</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
+        <f>A27+1</f>
         <v>26</v>
       </c>
     </row>
@@ -8952,7 +8952,7 @@
         <v>48</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
+        <f>A28+1</f>
         <v>27</v>
       </c>
     </row>
@@ -8979,7 +8979,7 @@
         <v>53</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
+        <f>A29+1</f>
         <v>28</v>
       </c>
     </row>
@@ -9006,7 +9006,7 @@
         <v>60</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
+        <f>A30+1</f>
         <v>29</v>
       </c>
     </row>
@@ -9033,7 +9033,7 @@
         <v>63</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
+        <f>A31+1</f>
         <v>30</v>
       </c>
     </row>
@@ -9060,7 +9060,7 @@
         <v>65</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
+        <f>A32+1</f>
         <v>31</v>
       </c>
     </row>
@@ -9087,7 +9087,7 @@
         <v>66</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
+        <f>A33+1</f>
         <v>32</v>
       </c>
     </row>
@@ -9114,7 +9114,7 @@
         <v>288</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
+        <f>A34+1</f>
         <v>33</v>
       </c>
     </row>
@@ -9138,7 +9138,7 @@
         <v>111</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
+        <f>A35+1</f>
         <v>34</v>
       </c>
     </row>
@@ -9165,7 +9165,7 @@
         <v>59</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
+        <f>A36+1</f>
         <v>35</v>
       </c>
     </row>
@@ -9192,7 +9192,7 @@
         <v>70</v>
       </c>
       <c r="H37">
-        <f t="shared" si="0"/>
+        <f>A37+1</f>
         <v>36</v>
       </c>
     </row>
@@ -9219,7 +9219,7 @@
         <v>72</v>
       </c>
       <c r="H38">
-        <f t="shared" si="0"/>
+        <f>A38+1</f>
         <v>37</v>
       </c>
     </row>
@@ -9246,7 +9246,7 @@
         <v>77</v>
       </c>
       <c r="H39">
-        <f t="shared" si="0"/>
+        <f>A39+1</f>
         <v>38</v>
       </c>
     </row>
@@ -9273,7 +9273,7 @@
         <v>80</v>
       </c>
       <c r="H40">
-        <f t="shared" si="0"/>
+        <f>A40+1</f>
         <v>39</v>
       </c>
     </row>
@@ -9300,7 +9300,7 @@
         <v>82</v>
       </c>
       <c r="H41">
-        <f t="shared" si="0"/>
+        <f>A41+1</f>
         <v>40</v>
       </c>
     </row>
@@ -9324,7 +9324,7 @@
         <v>28</v>
       </c>
       <c r="H42">
-        <f t="shared" si="0"/>
+        <f>A42+1</f>
         <v>41</v>
       </c>
     </row>
@@ -9351,7 +9351,7 @@
         <v>65</v>
       </c>
       <c r="H43">
-        <f t="shared" si="0"/>
+        <f>A43+1</f>
         <v>42</v>
       </c>
     </row>
@@ -9378,7 +9378,7 @@
         <v>66</v>
       </c>
       <c r="H44">
-        <f t="shared" si="0"/>
+        <f>A44+1</f>
         <v>43</v>
       </c>
     </row>
@@ -9405,7 +9405,7 @@
         <v>288</v>
       </c>
       <c r="H45">
-        <f t="shared" si="0"/>
+        <f>A45+1</f>
         <v>44</v>
       </c>
     </row>
@@ -9432,7 +9432,7 @@
         <v>69</v>
       </c>
       <c r="H46">
-        <f t="shared" si="0"/>
+        <f>A46+1</f>
         <v>45</v>
       </c>
     </row>
@@ -9459,7 +9459,7 @@
         <v>71</v>
       </c>
       <c r="H47">
-        <f t="shared" si="0"/>
+        <f>A47+1</f>
         <v>46</v>
       </c>
     </row>
@@ -9486,7 +9486,7 @@
         <v>74</v>
       </c>
       <c r="H48">
-        <f t="shared" si="0"/>
+        <f>A48+1</f>
         <v>47</v>
       </c>
     </row>
@@ -9513,7 +9513,7 @@
         <v>75</v>
       </c>
       <c r="H49">
-        <f t="shared" si="0"/>
+        <f>A49+1</f>
         <v>48</v>
       </c>
     </row>
@@ -9540,7 +9540,7 @@
         <v>78</v>
       </c>
       <c r="H50">
-        <f t="shared" si="0"/>
+        <f>A50+1</f>
         <v>49</v>
       </c>
     </row>
@@ -9567,7 +9567,7 @@
         <v>171</v>
       </c>
       <c r="H51">
-        <f t="shared" si="0"/>
+        <f>A51+1</f>
         <v>50</v>
       </c>
     </row>
@@ -9594,7 +9594,7 @@
         <v>83</v>
       </c>
       <c r="H52">
-        <f t="shared" si="0"/>
+        <f>A52+1</f>
         <v>51</v>
       </c>
     </row>
@@ -9621,7 +9621,7 @@
         <v>87</v>
       </c>
       <c r="H53">
-        <f t="shared" si="0"/>
+        <f>A53+1</f>
         <v>52</v>
       </c>
     </row>
@@ -9648,7 +9648,7 @@
         <v>91</v>
       </c>
       <c r="H54">
-        <f t="shared" si="0"/>
+        <f>A54+1</f>
         <v>53</v>
       </c>
     </row>
@@ -9672,7 +9672,7 @@
         <v>161</v>
       </c>
       <c r="H55">
-        <f t="shared" si="0"/>
+        <f>A55+1</f>
         <v>54</v>
       </c>
     </row>
@@ -9699,7 +9699,7 @@
         <v>92</v>
       </c>
       <c r="H56">
-        <f t="shared" si="0"/>
+        <f>A56+1</f>
         <v>55</v>
       </c>
     </row>
@@ -9726,7 +9726,7 @@
         <v>99</v>
       </c>
       <c r="H57">
-        <f t="shared" si="0"/>
+        <f>A57+1</f>
         <v>56</v>
       </c>
     </row>
@@ -9753,7 +9753,7 @@
         <v>113</v>
       </c>
       <c r="H58">
-        <f t="shared" si="0"/>
+        <f>A58+1</f>
         <v>57</v>
       </c>
     </row>
@@ -9780,7 +9780,7 @@
         <v>114</v>
       </c>
       <c r="H59">
-        <f t="shared" si="0"/>
+        <f>A59+1</f>
         <v>58</v>
       </c>
     </row>
@@ -9804,7 +9804,7 @@
         <v>31</v>
       </c>
       <c r="H60">
-        <f t="shared" si="0"/>
+        <f>A60+1</f>
         <v>59</v>
       </c>
     </row>
@@ -9831,7 +9831,7 @@
         <v>168</v>
       </c>
       <c r="H61">
-        <f t="shared" si="0"/>
+        <f>A61+1</f>
         <v>60</v>
       </c>
     </row>
@@ -9858,7 +9858,7 @@
         <v>65</v>
       </c>
       <c r="H62">
-        <f t="shared" si="0"/>
+        <f>A62+1</f>
         <v>61</v>
       </c>
     </row>
@@ -9885,7 +9885,7 @@
         <v>66</v>
       </c>
       <c r="H63">
-        <f t="shared" si="0"/>
+        <f>A63+1</f>
         <v>62</v>
       </c>
     </row>
@@ -9912,7 +9912,7 @@
         <v>288</v>
       </c>
       <c r="H64">
-        <f t="shared" si="0"/>
+        <f>A64+1</f>
         <v>63</v>
       </c>
     </row>
@@ -9939,7 +9939,7 @@
         <v>69</v>
       </c>
       <c r="H65">
-        <f t="shared" si="0"/>
+        <f>A65+1</f>
         <v>64</v>
       </c>
     </row>
@@ -9966,7 +9966,7 @@
         <v>71</v>
       </c>
       <c r="H66">
-        <f t="shared" si="0"/>
+        <f>A66+1</f>
         <v>65</v>
       </c>
     </row>
@@ -9993,7 +9993,7 @@
         <v>74</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H130" si="1">A67+1</f>
+        <f>A67+1</f>
         <v>66</v>
       </c>
     </row>
@@ -10020,7 +10020,7 @@
         <v>78</v>
       </c>
       <c r="H68">
-        <f t="shared" si="1"/>
+        <f>A68+1</f>
         <v>67</v>
       </c>
     </row>
@@ -10044,7 +10044,7 @@
         <v>33</v>
       </c>
       <c r="H69">
-        <f t="shared" si="1"/>
+        <f>A69+1</f>
         <v>68</v>
       </c>
     </row>
@@ -10068,7 +10068,7 @@
         <v>139</v>
       </c>
       <c r="H70">
-        <f t="shared" si="1"/>
+        <f>A70+1</f>
         <v>69</v>
       </c>
     </row>
@@ -10095,7 +10095,7 @@
         <v>70</v>
       </c>
       <c r="H71">
-        <f t="shared" si="1"/>
+        <f>A71+1</f>
         <v>70</v>
       </c>
     </row>
@@ -10122,7 +10122,7 @@
         <v>72</v>
       </c>
       <c r="H72">
-        <f t="shared" si="1"/>
+        <f>A72+1</f>
         <v>71</v>
       </c>
     </row>
@@ -10149,7 +10149,7 @@
         <v>77</v>
       </c>
       <c r="H73">
-        <f t="shared" si="1"/>
+        <f>A73+1</f>
         <v>72</v>
       </c>
     </row>
@@ -10176,7 +10176,7 @@
         <v>80</v>
       </c>
       <c r="H74">
-        <f t="shared" si="1"/>
+        <f>A74+1</f>
         <v>73</v>
       </c>
     </row>
@@ -10203,7 +10203,7 @@
         <v>85</v>
       </c>
       <c r="H75">
-        <f t="shared" si="1"/>
+        <f>A75+1</f>
         <v>74</v>
       </c>
     </row>
@@ -10230,7 +10230,7 @@
         <v>88</v>
       </c>
       <c r="H76">
-        <f t="shared" si="1"/>
+        <f>A76+1</f>
         <v>75</v>
       </c>
     </row>
@@ -10257,7 +10257,7 @@
         <v>92</v>
       </c>
       <c r="H77">
-        <f t="shared" si="1"/>
+        <f>A77+1</f>
         <v>76</v>
       </c>
     </row>
@@ -10281,7 +10281,7 @@
         <v>38</v>
       </c>
       <c r="H78">
-        <f t="shared" si="1"/>
+        <f>A78+1</f>
         <v>77</v>
       </c>
     </row>
@@ -10308,7 +10308,7 @@
         <v>69</v>
       </c>
       <c r="H79">
-        <f t="shared" si="1"/>
+        <f>A79+1</f>
         <v>78</v>
       </c>
     </row>
@@ -10335,7 +10335,7 @@
         <v>71</v>
       </c>
       <c r="H80">
-        <f t="shared" si="1"/>
+        <f>A80+1</f>
         <v>79</v>
       </c>
     </row>
@@ -10362,7 +10362,7 @@
         <v>74</v>
       </c>
       <c r="H81">
-        <f t="shared" si="1"/>
+        <f>A81+1</f>
         <v>80</v>
       </c>
     </row>
@@ -10389,7 +10389,7 @@
         <v>75</v>
       </c>
       <c r="H82">
-        <f t="shared" si="1"/>
+        <f>A82+1</f>
         <v>81</v>
       </c>
     </row>
@@ -10416,7 +10416,7 @@
         <v>78</v>
       </c>
       <c r="H83">
-        <f t="shared" si="1"/>
+        <f>A83+1</f>
         <v>82</v>
       </c>
     </row>
@@ -10443,7 +10443,7 @@
         <v>83</v>
       </c>
       <c r="H84">
-        <f t="shared" si="1"/>
+        <f>A84+1</f>
         <v>83</v>
       </c>
     </row>
@@ -10470,7 +10470,7 @@
         <v>87</v>
       </c>
       <c r="H85">
-        <f t="shared" si="1"/>
+        <f>A85+1</f>
         <v>84</v>
       </c>
     </row>
@@ -10497,7 +10497,7 @@
         <v>91</v>
       </c>
       <c r="H86">
-        <f t="shared" si="1"/>
+        <f>A86+1</f>
         <v>85</v>
       </c>
     </row>
@@ -10524,7 +10524,7 @@
         <v>95</v>
       </c>
       <c r="H87">
-        <f t="shared" si="1"/>
+        <f>A87+1</f>
         <v>86</v>
       </c>
     </row>
@@ -10548,7 +10548,7 @@
         <v>39</v>
       </c>
       <c r="H88">
-        <f t="shared" si="1"/>
+        <f>A88+1</f>
         <v>87</v>
       </c>
     </row>
@@ -10572,7 +10572,7 @@
         <v>40</v>
       </c>
       <c r="H89">
-        <f t="shared" si="1"/>
+        <f>A89+1</f>
         <v>88</v>
       </c>
     </row>
@@ -10596,7 +10596,7 @@
         <v>41</v>
       </c>
       <c r="H90">
-        <f t="shared" si="1"/>
+        <f>A90+1</f>
         <v>89</v>
       </c>
     </row>
@@ -10620,7 +10620,7 @@
         <v>43</v>
       </c>
       <c r="H91">
-        <f t="shared" si="1"/>
+        <f>A91+1</f>
         <v>90</v>
       </c>
     </row>
@@ -10644,7 +10644,7 @@
         <v>44</v>
       </c>
       <c r="H92">
-        <f t="shared" si="1"/>
+        <f>A92+1</f>
         <v>91</v>
       </c>
     </row>
@@ -10668,7 +10668,7 @@
         <v>46</v>
       </c>
       <c r="H93">
-        <f t="shared" si="1"/>
+        <f>A93+1</f>
         <v>92</v>
       </c>
     </row>
@@ -10692,7 +10692,7 @@
         <v>48</v>
       </c>
       <c r="H94">
-        <f t="shared" si="1"/>
+        <f>A94+1</f>
         <v>93</v>
       </c>
     </row>
@@ -10716,7 +10716,7 @@
         <v>49</v>
       </c>
       <c r="H95">
-        <f t="shared" si="1"/>
+        <f>A95+1</f>
         <v>94</v>
       </c>
     </row>
@@ -10743,7 +10743,7 @@
         <v>107</v>
       </c>
       <c r="H96">
-        <f t="shared" si="1"/>
+        <f>A96+1</f>
         <v>95</v>
       </c>
     </row>
@@ -10770,7 +10770,7 @@
         <v>188</v>
       </c>
       <c r="H97">
-        <f t="shared" si="1"/>
+        <f>A97+1</f>
         <v>96</v>
       </c>
     </row>
@@ -10797,7 +10797,7 @@
         <v>121</v>
       </c>
       <c r="H98">
-        <f t="shared" si="1"/>
+        <f>A98+1</f>
         <v>97</v>
       </c>
     </row>
@@ -10824,7 +10824,7 @@
         <v>129</v>
       </c>
       <c r="H99">
-        <f t="shared" si="1"/>
+        <f>A99+1</f>
         <v>98</v>
       </c>
     </row>
@@ -10851,7 +10851,7 @@
         <v>130</v>
       </c>
       <c r="H100">
-        <f t="shared" si="1"/>
+        <f>A100+1</f>
         <v>99</v>
       </c>
     </row>
@@ -10878,7 +10878,7 @@
         <v>132</v>
       </c>
       <c r="H101">
-        <f t="shared" si="1"/>
+        <f>A101+1</f>
         <v>100</v>
       </c>
     </row>
@@ -10905,7 +10905,7 @@
         <v>133</v>
       </c>
       <c r="H102">
-        <f t="shared" si="1"/>
+        <f>A102+1</f>
         <v>101</v>
       </c>
     </row>
@@ -10929,7 +10929,7 @@
         <v>51</v>
       </c>
       <c r="H103">
-        <f t="shared" si="1"/>
+        <f>A103+1</f>
         <v>102</v>
       </c>
     </row>
@@ -10956,7 +10956,7 @@
         <v>171</v>
       </c>
       <c r="H104">
-        <f t="shared" si="1"/>
+        <f>A104+1</f>
         <v>103</v>
       </c>
     </row>
@@ -10983,7 +10983,7 @@
         <v>83</v>
       </c>
       <c r="H105">
-        <f t="shared" si="1"/>
+        <f>A105+1</f>
         <v>104</v>
       </c>
     </row>
@@ -11010,7 +11010,7 @@
         <v>87</v>
       </c>
       <c r="H106">
-        <f t="shared" si="1"/>
+        <f>A106+1</f>
         <v>105</v>
       </c>
     </row>
@@ -11037,7 +11037,7 @@
         <v>95</v>
       </c>
       <c r="H107">
-        <f t="shared" si="1"/>
+        <f>A107+1</f>
         <v>106</v>
       </c>
     </row>
@@ -11064,7 +11064,7 @@
         <v>97</v>
       </c>
       <c r="H108">
-        <f t="shared" si="1"/>
+        <f>A108+1</f>
         <v>107</v>
       </c>
     </row>
@@ -11091,7 +11091,7 @@
         <v>100</v>
       </c>
       <c r="H109">
-        <f t="shared" si="1"/>
+        <f>A109+1</f>
         <v>108</v>
       </c>
     </row>
@@ -11118,7 +11118,7 @@
         <v>188</v>
       </c>
       <c r="H110">
-        <f t="shared" si="1"/>
+        <f>A110+1</f>
         <v>109</v>
       </c>
     </row>
@@ -11142,7 +11142,7 @@
         <v>53</v>
       </c>
       <c r="H111">
-        <f t="shared" si="1"/>
+        <f>A111+1</f>
         <v>110</v>
       </c>
     </row>
@@ -11166,7 +11166,7 @@
         <v>55</v>
       </c>
       <c r="H112">
-        <f t="shared" si="1"/>
+        <f>A112+1</f>
         <v>111</v>
       </c>
     </row>
@@ -11193,7 +11193,7 @@
         <v>97</v>
       </c>
       <c r="H113">
-        <f t="shared" si="1"/>
+        <f>A113+1</f>
         <v>112</v>
       </c>
     </row>
@@ -11220,7 +11220,7 @@
         <v>100</v>
       </c>
       <c r="H114">
-        <f t="shared" si="1"/>
+        <f>A114+1</f>
         <v>113</v>
       </c>
     </row>
@@ -11247,7 +11247,7 @@
         <v>107</v>
       </c>
       <c r="H115">
-        <f t="shared" si="1"/>
+        <f>A115+1</f>
         <v>114</v>
       </c>
     </row>
@@ -11274,7 +11274,7 @@
         <v>188</v>
       </c>
       <c r="H116">
-        <f t="shared" si="1"/>
+        <f>A116+1</f>
         <v>115</v>
       </c>
     </row>
@@ -11301,7 +11301,7 @@
         <v>121</v>
       </c>
       <c r="H117">
-        <f t="shared" si="1"/>
+        <f>A117+1</f>
         <v>116</v>
       </c>
     </row>
@@ -11325,7 +11325,7 @@
         <v>168</v>
       </c>
       <c r="H118">
-        <f t="shared" si="1"/>
+        <f>A118+1</f>
         <v>117</v>
       </c>
     </row>
@@ -11352,7 +11352,7 @@
         <v>99</v>
       </c>
       <c r="H119">
-        <f t="shared" si="1"/>
+        <f>A119+1</f>
         <v>118</v>
       </c>
     </row>
@@ -11379,7 +11379,7 @@
         <v>114</v>
       </c>
       <c r="H120">
-        <f t="shared" si="1"/>
+        <f>A120+1</f>
         <v>119</v>
       </c>
     </row>
@@ -11403,7 +11403,7 @@
         <v>59</v>
       </c>
       <c r="H121">
-        <f t="shared" si="1"/>
+        <f>A121+1</f>
         <v>120</v>
       </c>
     </row>
@@ -11430,7 +11430,7 @@
         <v>95</v>
       </c>
       <c r="H122">
-        <f t="shared" si="1"/>
+        <f>A122+1</f>
         <v>121</v>
       </c>
     </row>
@@ -11457,7 +11457,7 @@
         <v>97</v>
       </c>
       <c r="H123">
-        <f t="shared" si="1"/>
+        <f>A123+1</f>
         <v>122</v>
       </c>
     </row>
@@ -11484,7 +11484,7 @@
         <v>100</v>
       </c>
       <c r="H124">
-        <f t="shared" si="1"/>
+        <f>A124+1</f>
         <v>123</v>
       </c>
     </row>
@@ -11511,7 +11511,7 @@
         <v>107</v>
       </c>
       <c r="H125">
-        <f t="shared" si="1"/>
+        <f>A125+1</f>
         <v>124</v>
       </c>
     </row>
@@ -11538,7 +11538,7 @@
         <v>121</v>
       </c>
       <c r="H126">
-        <f t="shared" si="1"/>
+        <f>A126+1</f>
         <v>125</v>
       </c>
     </row>
@@ -11562,7 +11562,7 @@
         <v>60</v>
       </c>
       <c r="H127">
-        <f t="shared" si="1"/>
+        <f>A127+1</f>
         <v>126</v>
       </c>
     </row>
@@ -11586,7 +11586,7 @@
         <v>61</v>
       </c>
       <c r="H128">
-        <f t="shared" si="1"/>
+        <f>A128+1</f>
         <v>127</v>
       </c>
     </row>
@@ -11613,7 +11613,7 @@
         <v>95</v>
       </c>
       <c r="H129">
-        <f t="shared" si="1"/>
+        <f>A129+1</f>
         <v>128</v>
       </c>
     </row>
@@ -11640,7 +11640,7 @@
         <v>97</v>
       </c>
       <c r="H130">
-        <f t="shared" si="1"/>
+        <f>A130+1</f>
         <v>129</v>
       </c>
     </row>
@@ -11667,7 +11667,7 @@
         <v>107</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H194" si="2">A131+1</f>
+        <f>A131+1</f>
         <v>130</v>
       </c>
     </row>
@@ -11694,7 +11694,7 @@
         <v>188</v>
       </c>
       <c r="H132">
-        <f t="shared" si="2"/>
+        <f>A132+1</f>
         <v>131</v>
       </c>
     </row>
@@ -11721,7 +11721,7 @@
         <v>121</v>
       </c>
       <c r="H133">
-        <f t="shared" si="2"/>
+        <f>A133+1</f>
         <v>132</v>
       </c>
     </row>
@@ -11745,7 +11745,7 @@
         <v>63</v>
       </c>
       <c r="H134">
-        <f t="shared" si="2"/>
+        <f>A134+1</f>
         <v>133</v>
       </c>
     </row>
@@ -11769,7 +11769,7 @@
         <v>65</v>
       </c>
       <c r="H135">
-        <f t="shared" si="2"/>
+        <f>A135+1</f>
         <v>134</v>
       </c>
     </row>
@@ -11793,7 +11793,7 @@
         <v>66</v>
       </c>
       <c r="H136">
-        <f t="shared" si="2"/>
+        <f>A136+1</f>
         <v>135</v>
       </c>
     </row>
@@ -11817,7 +11817,7 @@
         <v>288</v>
       </c>
       <c r="H137">
-        <f t="shared" si="2"/>
+        <f>A137+1</f>
         <v>136</v>
       </c>
     </row>
@@ -11841,7 +11841,7 @@
         <v>68</v>
       </c>
       <c r="H138">
-        <f t="shared" si="2"/>
+        <f>A138+1</f>
         <v>137</v>
       </c>
     </row>
@@ -11868,7 +11868,7 @@
         <v>97</v>
       </c>
       <c r="H139">
-        <f t="shared" si="2"/>
+        <f>A139+1</f>
         <v>138</v>
       </c>
     </row>
@@ -11895,7 +11895,7 @@
         <v>100</v>
       </c>
       <c r="H140">
-        <f t="shared" si="2"/>
+        <f>A140+1</f>
         <v>139</v>
       </c>
     </row>
@@ -11922,7 +11922,7 @@
         <v>188</v>
       </c>
       <c r="H141">
-        <f t="shared" si="2"/>
+        <f>A141+1</f>
         <v>140</v>
       </c>
     </row>
@@ -11949,7 +11949,7 @@
         <v>121</v>
       </c>
       <c r="H142">
-        <f t="shared" si="2"/>
+        <f>A142+1</f>
         <v>141</v>
       </c>
     </row>
@@ -11973,7 +11973,7 @@
         <v>69</v>
       </c>
       <c r="H143">
-        <f t="shared" si="2"/>
+        <f>A143+1</f>
         <v>142</v>
       </c>
     </row>
@@ -11997,7 +11997,7 @@
         <v>70</v>
       </c>
       <c r="H144">
-        <f t="shared" si="2"/>
+        <f>A144+1</f>
         <v>143</v>
       </c>
     </row>
@@ -12021,7 +12021,7 @@
         <v>71</v>
       </c>
       <c r="H145">
-        <f t="shared" si="2"/>
+        <f>A145+1</f>
         <v>144</v>
       </c>
     </row>
@@ -12045,7 +12045,7 @@
         <v>72</v>
       </c>
       <c r="H146">
-        <f t="shared" si="2"/>
+        <f>A146+1</f>
         <v>145</v>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
         <v>74</v>
       </c>
       <c r="H147">
-        <f t="shared" si="2"/>
+        <f>A147+1</f>
         <v>146</v>
       </c>
     </row>
@@ -12093,7 +12093,7 @@
         <v>75</v>
       </c>
       <c r="H148">
-        <f t="shared" si="2"/>
+        <f>A148+1</f>
         <v>147</v>
       </c>
     </row>
@@ -12117,7 +12117,7 @@
         <v>77</v>
       </c>
       <c r="H149">
-        <f t="shared" si="2"/>
+        <f>A149+1</f>
         <v>148</v>
       </c>
     </row>
@@ -12141,7 +12141,7 @@
         <v>78</v>
       </c>
       <c r="H150">
-        <f t="shared" si="2"/>
+        <f>A150+1</f>
         <v>149</v>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
         <v>80</v>
       </c>
       <c r="H151">
-        <f t="shared" si="2"/>
+        <f>A151+1</f>
         <v>150</v>
       </c>
     </row>
@@ -12189,7 +12189,7 @@
         <v>171</v>
       </c>
       <c r="H152">
-        <f t="shared" si="2"/>
+        <f>A152+1</f>
         <v>151</v>
       </c>
     </row>
@@ -12216,7 +12216,7 @@
         <v>145</v>
       </c>
       <c r="H153">
-        <f t="shared" si="2"/>
+        <f>A153+1</f>
         <v>152</v>
       </c>
     </row>
@@ -12240,7 +12240,7 @@
         <v>82</v>
       </c>
       <c r="H154">
-        <f t="shared" si="2"/>
+        <f>A154+1</f>
         <v>153</v>
       </c>
     </row>
@@ -12267,7 +12267,7 @@
         <v>129</v>
       </c>
       <c r="H155">
-        <f t="shared" si="2"/>
+        <f>A155+1</f>
         <v>154</v>
       </c>
     </row>
@@ -12294,7 +12294,7 @@
         <v>130</v>
       </c>
       <c r="H156">
-        <f t="shared" si="2"/>
+        <f>A156+1</f>
         <v>155</v>
       </c>
     </row>
@@ -12321,7 +12321,7 @@
         <v>132</v>
       </c>
       <c r="H157">
-        <f t="shared" si="2"/>
+        <f>A157+1</f>
         <v>156</v>
       </c>
     </row>
@@ -12348,7 +12348,7 @@
         <v>133</v>
       </c>
       <c r="H158">
-        <f t="shared" si="2"/>
+        <f>A158+1</f>
         <v>157</v>
       </c>
     </row>
@@ -12375,7 +12375,7 @@
         <v>136</v>
       </c>
       <c r="H159">
-        <f t="shared" si="2"/>
+        <f>A159+1</f>
         <v>158</v>
       </c>
     </row>
@@ -12402,7 +12402,7 @@
         <v>141</v>
       </c>
       <c r="H160">
-        <f t="shared" si="2"/>
+        <f>A160+1</f>
         <v>159</v>
       </c>
     </row>
@@ -12429,7 +12429,7 @@
         <v>143</v>
       </c>
       <c r="H161">
-        <f t="shared" si="2"/>
+        <f>A161+1</f>
         <v>160</v>
       </c>
     </row>
@@ -12456,7 +12456,7 @@
         <v>144</v>
       </c>
       <c r="H162">
-        <f t="shared" si="2"/>
+        <f>A162+1</f>
         <v>161</v>
       </c>
     </row>
@@ -12483,7 +12483,7 @@
         <v>146</v>
       </c>
       <c r="H163">
-        <f t="shared" si="2"/>
+        <f>A163+1</f>
         <v>162</v>
       </c>
     </row>
@@ -12507,7 +12507,7 @@
         <v>83</v>
       </c>
       <c r="H164">
-        <f t="shared" si="2"/>
+        <f>A164+1</f>
         <v>163</v>
       </c>
     </row>
@@ -12531,7 +12531,7 @@
         <v>84</v>
       </c>
       <c r="H165">
-        <f t="shared" si="2"/>
+        <f>A165+1</f>
         <v>164</v>
       </c>
     </row>
@@ -12558,7 +12558,7 @@
         <v>130</v>
       </c>
       <c r="H166">
-        <f t="shared" si="2"/>
+        <f>A166+1</f>
         <v>165</v>
       </c>
     </row>
@@ -12585,7 +12585,7 @@
         <v>132</v>
       </c>
       <c r="H167">
-        <f t="shared" si="2"/>
+        <f>A167+1</f>
         <v>166</v>
       </c>
     </row>
@@ -12612,7 +12612,7 @@
         <v>133</v>
       </c>
       <c r="H168">
-        <f t="shared" si="2"/>
+        <f>A168+1</f>
         <v>167</v>
       </c>
     </row>
@@ -12639,7 +12639,7 @@
         <v>190</v>
       </c>
       <c r="H169">
-        <f t="shared" si="2"/>
+        <f>A169+1</f>
         <v>168</v>
       </c>
     </row>
@@ -12663,7 +12663,7 @@
         <v>85</v>
       </c>
       <c r="H170">
-        <f t="shared" si="2"/>
+        <f>A170+1</f>
         <v>169</v>
       </c>
     </row>
@@ -12687,7 +12687,7 @@
         <v>86</v>
       </c>
       <c r="H171">
-        <f t="shared" si="2"/>
+        <f>A171+1</f>
         <v>170</v>
       </c>
     </row>
@@ -12714,7 +12714,7 @@
         <v>130</v>
       </c>
       <c r="H172">
-        <f t="shared" si="2"/>
+        <f>A172+1</f>
         <v>171</v>
       </c>
     </row>
@@ -12741,7 +12741,7 @@
         <v>133</v>
       </c>
       <c r="H173">
-        <f t="shared" si="2"/>
+        <f>A173+1</f>
         <v>172</v>
       </c>
     </row>
@@ -12765,7 +12765,7 @@
         <v>87</v>
       </c>
       <c r="H174">
-        <f t="shared" si="2"/>
+        <f>A174+1</f>
         <v>173</v>
       </c>
     </row>
@@ -12789,7 +12789,7 @@
         <v>88</v>
       </c>
       <c r="H175">
-        <f t="shared" si="2"/>
+        <f>A175+1</f>
         <v>174</v>
       </c>
     </row>
@@ -12813,7 +12813,7 @@
         <v>90</v>
       </c>
       <c r="H176">
-        <f t="shared" si="2"/>
+        <f>A176+1</f>
         <v>175</v>
       </c>
     </row>
@@ -12837,7 +12837,7 @@
         <v>91</v>
       </c>
       <c r="H177">
-        <f t="shared" si="2"/>
+        <f>A177+1</f>
         <v>176</v>
       </c>
     </row>
@@ -12861,7 +12861,7 @@
         <v>92</v>
       </c>
       <c r="H178">
-        <f t="shared" si="2"/>
+        <f>A178+1</f>
         <v>177</v>
       </c>
     </row>
@@ -12885,7 +12885,7 @@
         <v>93</v>
       </c>
       <c r="H179">
-        <f t="shared" si="2"/>
+        <f>A179+1</f>
         <v>178</v>
       </c>
     </row>
@@ -12912,7 +12912,7 @@
         <v>130</v>
       </c>
       <c r="H180">
-        <f t="shared" si="2"/>
+        <f>A180+1</f>
         <v>179</v>
       </c>
     </row>
@@ -12939,7 +12939,7 @@
         <v>132</v>
       </c>
       <c r="H181">
-        <f t="shared" si="2"/>
+        <f>A181+1</f>
         <v>180</v>
       </c>
     </row>
@@ -12966,7 +12966,7 @@
         <v>133</v>
       </c>
       <c r="H182">
-        <f t="shared" si="2"/>
+        <f>A182+1</f>
         <v>181</v>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
         <v>136</v>
       </c>
       <c r="H183">
-        <f t="shared" si="2"/>
+        <f>A183+1</f>
         <v>182</v>
       </c>
     </row>
@@ -13020,7 +13020,7 @@
         <v>190</v>
       </c>
       <c r="H184">
-        <f t="shared" si="2"/>
+        <f>A184+1</f>
         <v>183</v>
       </c>
     </row>
@@ -13047,7 +13047,7 @@
         <v>144</v>
       </c>
       <c r="H185">
-        <f t="shared" si="2"/>
+        <f>A185+1</f>
         <v>184</v>
       </c>
     </row>
@@ -13074,7 +13074,7 @@
         <v>146</v>
       </c>
       <c r="H186">
-        <f t="shared" si="2"/>
+        <f>A186+1</f>
         <v>185</v>
       </c>
     </row>
@@ -13101,7 +13101,7 @@
         <v>148</v>
       </c>
       <c r="H187">
-        <f t="shared" si="2"/>
+        <f>A187+1</f>
         <v>186</v>
       </c>
     </row>
@@ -13125,7 +13125,7 @@
         <v>94</v>
       </c>
       <c r="H188">
-        <f t="shared" si="2"/>
+        <f>A188+1</f>
         <v>187</v>
       </c>
     </row>
@@ -13152,7 +13152,7 @@
         <v>136</v>
       </c>
       <c r="H189">
-        <f t="shared" si="2"/>
+        <f>A189+1</f>
         <v>188</v>
       </c>
     </row>
@@ -13179,7 +13179,7 @@
         <v>190</v>
       </c>
       <c r="H190">
-        <f t="shared" si="2"/>
+        <f>A190+1</f>
         <v>189</v>
       </c>
     </row>
@@ -13206,7 +13206,7 @@
         <v>143</v>
       </c>
       <c r="H191">
-        <f t="shared" si="2"/>
+        <f>A191+1</f>
         <v>190</v>
       </c>
     </row>
@@ -13233,7 +13233,7 @@
         <v>144</v>
       </c>
       <c r="H192">
-        <f t="shared" si="2"/>
+        <f>A192+1</f>
         <v>191</v>
       </c>
     </row>
@@ -13260,7 +13260,7 @@
         <v>146</v>
       </c>
       <c r="H193">
-        <f t="shared" si="2"/>
+        <f>A193+1</f>
         <v>192</v>
       </c>
     </row>
@@ -13287,7 +13287,7 @@
         <v>148</v>
       </c>
       <c r="H194">
-        <f t="shared" si="2"/>
+        <f>A194+1</f>
         <v>193</v>
       </c>
     </row>
@@ -13314,7 +13314,7 @@
         <v>150</v>
       </c>
       <c r="H195">
-        <f t="shared" ref="H195:H258" si="3">A195+1</f>
+        <f>A195+1</f>
         <v>194</v>
       </c>
     </row>
@@ -13341,7 +13341,7 @@
         <v>151</v>
       </c>
       <c r="H196">
-        <f t="shared" si="3"/>
+        <f>A196+1</f>
         <v>195</v>
       </c>
     </row>
@@ -13368,7 +13368,7 @@
         <v>157</v>
       </c>
       <c r="H197">
-        <f t="shared" si="3"/>
+        <f>A197+1</f>
         <v>196</v>
       </c>
     </row>
@@ -13395,7 +13395,7 @@
         <v>158</v>
       </c>
       <c r="H198">
-        <f t="shared" si="3"/>
+        <f>A198+1</f>
         <v>197</v>
       </c>
     </row>
@@ -13419,7 +13419,7 @@
         <v>95</v>
       </c>
       <c r="H199">
-        <f t="shared" si="3"/>
+        <f>A199+1</f>
         <v>198</v>
       </c>
     </row>
@@ -13443,7 +13443,7 @@
         <v>96</v>
       </c>
       <c r="H200">
-        <f t="shared" si="3"/>
+        <f>A200+1</f>
         <v>199</v>
       </c>
     </row>
@@ -13470,7 +13470,7 @@
         <v>136</v>
       </c>
       <c r="H201">
-        <f t="shared" si="3"/>
+        <f>A201+1</f>
         <v>200</v>
       </c>
     </row>
@@ -13497,7 +13497,7 @@
         <v>190</v>
       </c>
       <c r="H202">
-        <f t="shared" si="3"/>
+        <f>A202+1</f>
         <v>201</v>
       </c>
     </row>
@@ -13524,7 +13524,7 @@
         <v>141</v>
       </c>
       <c r="H203">
-        <f t="shared" si="3"/>
+        <f>A203+1</f>
         <v>202</v>
       </c>
     </row>
@@ -13551,7 +13551,7 @@
         <v>143</v>
       </c>
       <c r="H204">
-        <f t="shared" si="3"/>
+        <f>A204+1</f>
         <v>203</v>
       </c>
     </row>
@@ -13578,7 +13578,7 @@
         <v>144</v>
       </c>
       <c r="H205">
-        <f t="shared" si="3"/>
+        <f>A205+1</f>
         <v>204</v>
       </c>
     </row>
@@ -13605,7 +13605,7 @@
         <v>146</v>
       </c>
       <c r="H206">
-        <f t="shared" si="3"/>
+        <f>A206+1</f>
         <v>205</v>
       </c>
     </row>
@@ -13632,7 +13632,7 @@
         <v>148</v>
       </c>
       <c r="H207">
-        <f t="shared" si="3"/>
+        <f>A207+1</f>
         <v>206</v>
       </c>
     </row>
@@ -13659,7 +13659,7 @@
         <v>150</v>
       </c>
       <c r="H208">
-        <f t="shared" si="3"/>
+        <f>A208+1</f>
         <v>207</v>
       </c>
     </row>
@@ -13686,7 +13686,7 @@
         <v>151</v>
       </c>
       <c r="H209">
-        <f t="shared" si="3"/>
+        <f>A209+1</f>
         <v>208</v>
       </c>
     </row>
@@ -13713,7 +13713,7 @@
         <v>157</v>
       </c>
       <c r="H210">
-        <f t="shared" si="3"/>
+        <f>A210+1</f>
         <v>209</v>
       </c>
     </row>
@@ -13740,7 +13740,7 @@
         <v>158</v>
       </c>
       <c r="H211">
-        <f t="shared" si="3"/>
+        <f>A211+1</f>
         <v>210</v>
       </c>
     </row>
@@ -13764,7 +13764,7 @@
         <v>97</v>
       </c>
       <c r="H212">
-        <f t="shared" si="3"/>
+        <f>A212+1</f>
         <v>211</v>
       </c>
     </row>
@@ -13788,7 +13788,7 @@
         <v>98</v>
       </c>
       <c r="H213">
-        <f t="shared" si="3"/>
+        <f>A213+1</f>
         <v>212</v>
       </c>
     </row>
@@ -13815,7 +13815,7 @@
         <v>132</v>
       </c>
       <c r="H214">
-        <f t="shared" si="3"/>
+        <f>A214+1</f>
         <v>213</v>
       </c>
     </row>
@@ -13842,7 +13842,7 @@
         <v>133</v>
       </c>
       <c r="H215">
-        <f t="shared" si="3"/>
+        <f>A215+1</f>
         <v>214</v>
       </c>
     </row>
@@ -13869,7 +13869,7 @@
         <v>190</v>
       </c>
       <c r="H216">
-        <f t="shared" si="3"/>
+        <f>A216+1</f>
         <v>215</v>
       </c>
     </row>
@@ -13896,7 +13896,7 @@
         <v>146</v>
       </c>
       <c r="H217">
-        <f t="shared" si="3"/>
+        <f>A217+1</f>
         <v>216</v>
       </c>
     </row>
@@ -13920,7 +13920,7 @@
         <v>99</v>
       </c>
       <c r="H218">
-        <f t="shared" si="3"/>
+        <f>A218+1</f>
         <v>217</v>
       </c>
     </row>
@@ -13944,7 +13944,7 @@
         <v>100</v>
       </c>
       <c r="H219">
-        <f t="shared" si="3"/>
+        <f>A219+1</f>
         <v>218</v>
       </c>
     </row>
@@ -13968,7 +13968,7 @@
         <v>101</v>
       </c>
       <c r="H220">
-        <f t="shared" si="3"/>
+        <f>A220+1</f>
         <v>219</v>
       </c>
     </row>
@@ -13995,7 +13995,7 @@
         <v>158</v>
       </c>
       <c r="H221">
-        <f t="shared" si="3"/>
+        <f>A221+1</f>
         <v>220</v>
       </c>
     </row>
@@ -14022,7 +14022,7 @@
         <v>194</v>
       </c>
       <c r="H222">
-        <f t="shared" si="3"/>
+        <f>A222+1</f>
         <v>221</v>
       </c>
     </row>
@@ -14049,7 +14049,7 @@
         <v>172</v>
       </c>
       <c r="H223">
-        <f t="shared" si="3"/>
+        <f>A223+1</f>
         <v>222</v>
       </c>
     </row>
@@ -14076,7 +14076,7 @@
         <v>173</v>
       </c>
       <c r="H224">
-        <f t="shared" si="3"/>
+        <f>A224+1</f>
         <v>223</v>
       </c>
     </row>
@@ -14103,7 +14103,7 @@
         <v>174</v>
       </c>
       <c r="H225">
-        <f t="shared" si="3"/>
+        <f>A225+1</f>
         <v>224</v>
       </c>
     </row>
@@ -14130,7 +14130,7 @@
         <v>175</v>
       </c>
       <c r="H226">
-        <f t="shared" si="3"/>
+        <f>A226+1</f>
         <v>225</v>
       </c>
     </row>
@@ -14154,7 +14154,7 @@
         <v>102</v>
       </c>
       <c r="H227">
-        <f t="shared" si="3"/>
+        <f>A227+1</f>
         <v>226</v>
       </c>
     </row>
@@ -14181,7 +14181,7 @@
         <v>190</v>
       </c>
       <c r="H228">
-        <f t="shared" si="3"/>
+        <f>A228+1</f>
         <v>227</v>
       </c>
     </row>
@@ -14208,7 +14208,7 @@
         <v>146</v>
       </c>
       <c r="H229">
-        <f t="shared" si="3"/>
+        <f>A229+1</f>
         <v>228</v>
       </c>
     </row>
@@ -14232,7 +14232,7 @@
         <v>103</v>
       </c>
       <c r="H230">
-        <f t="shared" si="3"/>
+        <f>A230+1</f>
         <v>229</v>
       </c>
     </row>
@@ -14259,7 +14259,7 @@
         <v>144</v>
       </c>
       <c r="H231">
-        <f t="shared" si="3"/>
+        <f>A231+1</f>
         <v>230</v>
       </c>
     </row>
@@ -14286,7 +14286,7 @@
         <v>148</v>
       </c>
       <c r="H232">
-        <f t="shared" si="3"/>
+        <f>A232+1</f>
         <v>231</v>
       </c>
     </row>
@@ -14313,7 +14313,7 @@
         <v>150</v>
       </c>
       <c r="H233">
-        <f t="shared" si="3"/>
+        <f>A233+1</f>
         <v>232</v>
       </c>
     </row>
@@ -14340,7 +14340,7 @@
         <v>151</v>
       </c>
       <c r="H234">
-        <f t="shared" si="3"/>
+        <f>A234+1</f>
         <v>233</v>
       </c>
     </row>
@@ -14367,7 +14367,7 @@
         <v>157</v>
       </c>
       <c r="H235">
-        <f t="shared" si="3"/>
+        <f>A235+1</f>
         <v>234</v>
       </c>
     </row>
@@ -14394,7 +14394,7 @@
         <v>158</v>
       </c>
       <c r="H236">
-        <f t="shared" si="3"/>
+        <f>A236+1</f>
         <v>235</v>
       </c>
     </row>
@@ -14421,7 +14421,7 @@
         <v>194</v>
       </c>
       <c r="H237">
-        <f t="shared" si="3"/>
+        <f>A237+1</f>
         <v>236</v>
       </c>
     </row>
@@ -14448,7 +14448,7 @@
         <v>166</v>
       </c>
       <c r="H238">
-        <f t="shared" si="3"/>
+        <f>A238+1</f>
         <v>237</v>
       </c>
     </row>
@@ -14475,7 +14475,7 @@
         <v>173</v>
       </c>
       <c r="H239">
-        <f t="shared" si="3"/>
+        <f>A239+1</f>
         <v>238</v>
       </c>
     </row>
@@ -14502,7 +14502,7 @@
         <v>174</v>
       </c>
       <c r="H240">
-        <f t="shared" si="3"/>
+        <f>A240+1</f>
         <v>239</v>
       </c>
     </row>
@@ -14526,7 +14526,7 @@
         <v>104</v>
       </c>
       <c r="H241">
-        <f t="shared" si="3"/>
+        <f>A241+1</f>
         <v>240</v>
       </c>
     </row>
@@ -14553,7 +14553,7 @@
         <v>190</v>
       </c>
       <c r="H242">
-        <f t="shared" si="3"/>
+        <f>A242+1</f>
         <v>241</v>
       </c>
     </row>
@@ -14580,7 +14580,7 @@
         <v>146</v>
       </c>
       <c r="H243">
-        <f t="shared" si="3"/>
+        <f>A243+1</f>
         <v>242</v>
       </c>
     </row>
@@ -14604,7 +14604,7 @@
         <v>105</v>
       </c>
       <c r="H244">
-        <f t="shared" si="3"/>
+        <f>A244+1</f>
         <v>243</v>
       </c>
     </row>
@@ -14631,7 +14631,7 @@
         <v>146</v>
       </c>
       <c r="H245">
-        <f t="shared" si="3"/>
+        <f>A245+1</f>
         <v>244</v>
       </c>
     </row>
@@ -14658,7 +14658,7 @@
         <v>194</v>
       </c>
       <c r="H246">
-        <f t="shared" si="3"/>
+        <f>A246+1</f>
         <v>245</v>
       </c>
     </row>
@@ -14682,7 +14682,7 @@
         <v>106</v>
       </c>
       <c r="H247">
-        <f t="shared" si="3"/>
+        <f>A247+1</f>
         <v>246</v>
       </c>
     </row>
@@ -14709,7 +14709,7 @@
         <v>144</v>
       </c>
       <c r="H248">
-        <f t="shared" si="3"/>
+        <f>A248+1</f>
         <v>247</v>
       </c>
     </row>
@@ -14736,7 +14736,7 @@
         <v>146</v>
       </c>
       <c r="H249">
-        <f t="shared" si="3"/>
+        <f>A249+1</f>
         <v>248</v>
       </c>
     </row>
@@ -14763,7 +14763,7 @@
         <v>148</v>
       </c>
       <c r="H250">
-        <f t="shared" si="3"/>
+        <f>A250+1</f>
         <v>249</v>
       </c>
     </row>
@@ -14790,7 +14790,7 @@
         <v>150</v>
       </c>
       <c r="H251">
-        <f t="shared" si="3"/>
+        <f>A251+1</f>
         <v>250</v>
       </c>
     </row>
@@ -14817,7 +14817,7 @@
         <v>151</v>
       </c>
       <c r="H252">
-        <f t="shared" si="3"/>
+        <f>A252+1</f>
         <v>251</v>
       </c>
     </row>
@@ -14844,7 +14844,7 @@
         <v>157</v>
       </c>
       <c r="H253">
-        <f t="shared" si="3"/>
+        <f>A253+1</f>
         <v>252</v>
       </c>
     </row>
@@ -14871,7 +14871,7 @@
         <v>158</v>
       </c>
       <c r="H254">
-        <f t="shared" si="3"/>
+        <f>A254+1</f>
         <v>253</v>
       </c>
     </row>
@@ -14898,7 +14898,7 @@
         <v>194</v>
       </c>
       <c r="H255">
-        <f t="shared" si="3"/>
+        <f>A255+1</f>
         <v>254</v>
       </c>
     </row>
@@ -14925,7 +14925,7 @@
         <v>172</v>
       </c>
       <c r="H256">
-        <f t="shared" si="3"/>
+        <f>A256+1</f>
         <v>255</v>
       </c>
     </row>
@@ -14952,7 +14952,7 @@
         <v>173</v>
       </c>
       <c r="H257">
-        <f t="shared" si="3"/>
+        <f>A257+1</f>
         <v>256</v>
       </c>
     </row>
@@ -14976,7 +14976,7 @@
         <v>107</v>
       </c>
       <c r="H258">
-        <f t="shared" si="3"/>
+        <f>A258+1</f>
         <v>257</v>
       </c>
     </row>
@@ -15000,7 +15000,7 @@
         <v>108</v>
       </c>
       <c r="H259">
-        <f t="shared" ref="H259:H322" si="4">A259+1</f>
+        <f>A259+1</f>
         <v>258</v>
       </c>
     </row>
@@ -15024,7 +15024,7 @@
         <v>109</v>
       </c>
       <c r="H260">
-        <f t="shared" si="4"/>
+        <f>A260+1</f>
         <v>259</v>
       </c>
     </row>
@@ -15051,7 +15051,7 @@
         <v>144</v>
       </c>
       <c r="H261">
-        <f t="shared" si="4"/>
+        <f>A261+1</f>
         <v>260</v>
       </c>
     </row>
@@ -15078,7 +15078,7 @@
         <v>146</v>
       </c>
       <c r="H262">
-        <f t="shared" si="4"/>
+        <f>A262+1</f>
         <v>261</v>
       </c>
     </row>
@@ -15105,7 +15105,7 @@
         <v>148</v>
       </c>
       <c r="H263">
-        <f t="shared" si="4"/>
+        <f>A263+1</f>
         <v>262</v>
       </c>
     </row>
@@ -15132,7 +15132,7 @@
         <v>150</v>
       </c>
       <c r="H264">
-        <f t="shared" si="4"/>
+        <f>A264+1</f>
         <v>263</v>
       </c>
     </row>
@@ -15159,7 +15159,7 @@
         <v>151</v>
       </c>
       <c r="H265">
-        <f t="shared" si="4"/>
+        <f>A265+1</f>
         <v>264</v>
       </c>
     </row>
@@ -15186,7 +15186,7 @@
         <v>157</v>
       </c>
       <c r="H266">
-        <f t="shared" si="4"/>
+        <f>A266+1</f>
         <v>265</v>
       </c>
     </row>
@@ -15213,7 +15213,7 @@
         <v>158</v>
       </c>
       <c r="H267">
-        <f t="shared" si="4"/>
+        <f>A267+1</f>
         <v>266</v>
       </c>
     </row>
@@ -15240,7 +15240,7 @@
         <v>194</v>
       </c>
       <c r="H268">
-        <f t="shared" si="4"/>
+        <f>A268+1</f>
         <v>267</v>
       </c>
     </row>
@@ -15267,7 +15267,7 @@
         <v>172</v>
       </c>
       <c r="H269">
-        <f t="shared" si="4"/>
+        <f>A269+1</f>
         <v>268</v>
       </c>
     </row>
@@ -15291,7 +15291,7 @@
         <v>110</v>
       </c>
       <c r="H270">
-        <f t="shared" si="4"/>
+        <f>A270+1</f>
         <v>269</v>
       </c>
     </row>
@@ -15315,7 +15315,7 @@
         <v>188</v>
       </c>
       <c r="H271">
-        <f t="shared" si="4"/>
+        <f>A271+1</f>
         <v>270</v>
       </c>
     </row>
@@ -15339,7 +15339,7 @@
         <v>113</v>
       </c>
       <c r="H272">
-        <f t="shared" si="4"/>
+        <f>A272+1</f>
         <v>271</v>
       </c>
     </row>
@@ -15366,7 +15366,7 @@
         <v>148</v>
       </c>
       <c r="H273">
-        <f t="shared" si="4"/>
+        <f>A273+1</f>
         <v>272</v>
       </c>
     </row>
@@ -15393,7 +15393,7 @@
         <v>150</v>
       </c>
       <c r="H274">
-        <f t="shared" si="4"/>
+        <f>A274+1</f>
         <v>273</v>
       </c>
     </row>
@@ -15420,7 +15420,7 @@
         <v>151</v>
       </c>
       <c r="H275">
-        <f t="shared" si="4"/>
+        <f>A275+1</f>
         <v>274</v>
       </c>
     </row>
@@ -15447,7 +15447,7 @@
         <v>154</v>
       </c>
       <c r="H276">
-        <f t="shared" si="4"/>
+        <f>A276+1</f>
         <v>275</v>
       </c>
     </row>
@@ -15474,7 +15474,7 @@
         <v>157</v>
       </c>
       <c r="H277">
-        <f t="shared" si="4"/>
+        <f>A277+1</f>
         <v>276</v>
       </c>
     </row>
@@ -15501,7 +15501,7 @@
         <v>158</v>
       </c>
       <c r="H278">
-        <f t="shared" si="4"/>
+        <f>A278+1</f>
         <v>277</v>
       </c>
     </row>
@@ -15528,7 +15528,7 @@
         <v>166</v>
       </c>
       <c r="H279">
-        <f t="shared" si="4"/>
+        <f>A279+1</f>
         <v>278</v>
       </c>
     </row>
@@ -15555,7 +15555,7 @@
         <v>172</v>
       </c>
       <c r="H280">
-        <f t="shared" si="4"/>
+        <f>A280+1</f>
         <v>279</v>
       </c>
     </row>
@@ -15582,7 +15582,7 @@
         <v>173</v>
       </c>
       <c r="H281">
-        <f t="shared" si="4"/>
+        <f>A281+1</f>
         <v>280</v>
       </c>
     </row>
@@ -15609,7 +15609,7 @@
         <v>174</v>
       </c>
       <c r="H282">
-        <f t="shared" si="4"/>
+        <f>A282+1</f>
         <v>281</v>
       </c>
     </row>
@@ -15636,7 +15636,7 @@
         <v>175</v>
       </c>
       <c r="H283">
-        <f t="shared" si="4"/>
+        <f>A283+1</f>
         <v>282</v>
       </c>
     </row>
@@ -15663,7 +15663,7 @@
         <v>176</v>
       </c>
       <c r="H284">
-        <f t="shared" si="4"/>
+        <f>A284+1</f>
         <v>283</v>
       </c>
     </row>
@@ -15687,7 +15687,7 @@
         <v>114</v>
       </c>
       <c r="H285">
-        <f t="shared" si="4"/>
+        <f>A285+1</f>
         <v>284</v>
       </c>
     </row>
@@ -15711,7 +15711,7 @@
         <v>115</v>
       </c>
       <c r="H286">
-        <f t="shared" si="4"/>
+        <f>A286+1</f>
         <v>285</v>
       </c>
     </row>
@@ -15738,7 +15738,7 @@
         <v>204</v>
       </c>
       <c r="H287">
-        <f t="shared" si="4"/>
+        <f>A287+1</f>
         <v>286</v>
       </c>
     </row>
@@ -15762,7 +15762,7 @@
         <v>116</v>
       </c>
       <c r="H288">
-        <f t="shared" si="4"/>
+        <f>A288+1</f>
         <v>287</v>
       </c>
     </row>
@@ -15789,7 +15789,7 @@
         <v>148</v>
       </c>
       <c r="H289">
-        <f t="shared" si="4"/>
+        <f>A289+1</f>
         <v>288</v>
       </c>
     </row>
@@ -15816,7 +15816,7 @@
         <v>158</v>
       </c>
       <c r="H290">
-        <f t="shared" si="4"/>
+        <f>A290+1</f>
         <v>289</v>
       </c>
     </row>
@@ -15843,7 +15843,7 @@
         <v>194</v>
       </c>
       <c r="H291">
-        <f t="shared" si="4"/>
+        <f>A291+1</f>
         <v>290</v>
       </c>
     </row>
@@ -15870,7 +15870,7 @@
         <v>172</v>
       </c>
       <c r="H292">
-        <f t="shared" si="4"/>
+        <f>A292+1</f>
         <v>291</v>
       </c>
     </row>
@@ -15897,7 +15897,7 @@
         <v>173</v>
       </c>
       <c r="H293">
-        <f t="shared" si="4"/>
+        <f>A293+1</f>
         <v>292</v>
       </c>
     </row>
@@ -15924,7 +15924,7 @@
         <v>174</v>
       </c>
       <c r="H294">
-        <f t="shared" si="4"/>
+        <f>A294+1</f>
         <v>293</v>
       </c>
     </row>
@@ -15948,7 +15948,7 @@
         <v>117</v>
       </c>
       <c r="H295">
-        <f t="shared" si="4"/>
+        <f>A295+1</f>
         <v>294</v>
       </c>
     </row>
@@ -15975,7 +15975,7 @@
         <v>174</v>
       </c>
       <c r="H296">
-        <f t="shared" si="4"/>
+        <f>A296+1</f>
         <v>295</v>
       </c>
     </row>
@@ -16002,7 +16002,7 @@
         <v>175</v>
       </c>
       <c r="H297">
-        <f t="shared" si="4"/>
+        <f>A297+1</f>
         <v>296</v>
       </c>
     </row>
@@ -16029,7 +16029,7 @@
         <v>176</v>
       </c>
       <c r="H298">
-        <f t="shared" si="4"/>
+        <f>A298+1</f>
         <v>297</v>
       </c>
     </row>
@@ -16056,7 +16056,7 @@
         <v>182</v>
       </c>
       <c r="H299">
-        <f t="shared" si="4"/>
+        <f>A299+1</f>
         <v>298</v>
       </c>
     </row>
@@ -16083,7 +16083,7 @@
         <v>183</v>
       </c>
       <c r="H300">
-        <f t="shared" si="4"/>
+        <f>A300+1</f>
         <v>299</v>
       </c>
     </row>
@@ -16110,7 +16110,7 @@
         <v>204</v>
       </c>
       <c r="H301">
-        <f t="shared" si="4"/>
+        <f>A301+1</f>
         <v>300</v>
       </c>
     </row>
@@ -16137,7 +16137,7 @@
         <v>193</v>
       </c>
       <c r="H302">
-        <f t="shared" si="4"/>
+        <f>A302+1</f>
         <v>301</v>
       </c>
     </row>
@@ -16164,7 +16164,7 @@
         <v>198</v>
       </c>
       <c r="H303">
-        <f t="shared" si="4"/>
+        <f>A303+1</f>
         <v>302</v>
       </c>
     </row>
@@ -16188,7 +16188,7 @@
         <v>210</v>
       </c>
       <c r="H304">
-        <f t="shared" si="4"/>
+        <f>A304+1</f>
         <v>303</v>
       </c>
     </row>
@@ -16215,7 +16215,7 @@
         <v>254</v>
       </c>
       <c r="H305">
-        <f t="shared" si="4"/>
+        <f>A305+1</f>
         <v>304</v>
       </c>
     </row>
@@ -16242,7 +16242,7 @@
         <v>260</v>
       </c>
       <c r="H306">
-        <f t="shared" si="4"/>
+        <f>A306+1</f>
         <v>305</v>
       </c>
     </row>
@@ -16269,7 +16269,7 @@
         <v>264</v>
       </c>
       <c r="H307">
-        <f t="shared" si="4"/>
+        <f>A307+1</f>
         <v>306</v>
       </c>
     </row>
@@ -16296,7 +16296,7 @@
         <v>267</v>
       </c>
       <c r="H308">
-        <f t="shared" si="4"/>
+        <f>A308+1</f>
         <v>307</v>
       </c>
     </row>
@@ -16320,7 +16320,7 @@
         <v>120</v>
       </c>
       <c r="H309">
-        <f t="shared" si="4"/>
+        <f>A309+1</f>
         <v>308</v>
       </c>
     </row>
@@ -16347,7 +16347,7 @@
         <v>148</v>
       </c>
       <c r="H310">
-        <f t="shared" si="4"/>
+        <f>A310+1</f>
         <v>309</v>
       </c>
     </row>
@@ -16374,7 +16374,7 @@
         <v>150</v>
       </c>
       <c r="H311">
-        <f t="shared" si="4"/>
+        <f>A311+1</f>
         <v>310</v>
       </c>
     </row>
@@ -16401,7 +16401,7 @@
         <v>151</v>
       </c>
       <c r="H312">
-        <f t="shared" si="4"/>
+        <f>A312+1</f>
         <v>311</v>
       </c>
     </row>
@@ -16428,7 +16428,7 @@
         <v>158</v>
       </c>
       <c r="H313">
-        <f t="shared" si="4"/>
+        <f>A313+1</f>
         <v>312</v>
       </c>
     </row>
@@ -16455,7 +16455,7 @@
         <v>194</v>
       </c>
       <c r="H314">
-        <f t="shared" si="4"/>
+        <f>A314+1</f>
         <v>313</v>
       </c>
     </row>
@@ -16482,7 +16482,7 @@
         <v>172</v>
       </c>
       <c r="H315">
-        <f t="shared" si="4"/>
+        <f>A315+1</f>
         <v>314</v>
       </c>
     </row>
@@ -16509,7 +16509,7 @@
         <v>173</v>
       </c>
       <c r="H316">
-        <f t="shared" si="4"/>
+        <f>A316+1</f>
         <v>315</v>
       </c>
     </row>
@@ -16536,7 +16536,7 @@
         <v>175</v>
       </c>
       <c r="H317">
-        <f t="shared" si="4"/>
+        <f>A317+1</f>
         <v>316</v>
       </c>
     </row>
@@ -16560,7 +16560,7 @@
         <v>121</v>
       </c>
       <c r="H318">
-        <f t="shared" si="4"/>
+        <f>A318+1</f>
         <v>317</v>
       </c>
     </row>
@@ -16584,7 +16584,7 @@
         <v>122</v>
       </c>
       <c r="H319">
-        <f t="shared" si="4"/>
+        <f>A319+1</f>
         <v>318</v>
       </c>
     </row>
@@ -16611,7 +16611,7 @@
         <v>146</v>
       </c>
       <c r="H320">
-        <f t="shared" si="4"/>
+        <f>A320+1</f>
         <v>319</v>
       </c>
     </row>
@@ -16638,7 +16638,7 @@
         <v>194</v>
       </c>
       <c r="H321">
-        <f t="shared" si="4"/>
+        <f>A321+1</f>
         <v>320</v>
       </c>
     </row>
@@ -16665,7 +16665,7 @@
         <v>173</v>
       </c>
       <c r="H322">
-        <f t="shared" si="4"/>
+        <f>A322+1</f>
         <v>321</v>
       </c>
     </row>
@@ -16689,7 +16689,7 @@
         <v>123</v>
       </c>
       <c r="H323">
-        <f t="shared" ref="H323:H386" si="5">A323+1</f>
+        <f>A323+1</f>
         <v>322</v>
       </c>
     </row>
@@ -16716,7 +16716,7 @@
         <v>173</v>
       </c>
       <c r="H324">
-        <f t="shared" si="5"/>
+        <f>A324+1</f>
         <v>323</v>
       </c>
     </row>
@@ -16743,7 +16743,7 @@
         <v>182</v>
       </c>
       <c r="H325">
-        <f t="shared" si="5"/>
+        <f>A325+1</f>
         <v>324</v>
       </c>
     </row>
@@ -16770,7 +16770,7 @@
         <v>204</v>
       </c>
       <c r="H326">
-        <f t="shared" si="5"/>
+        <f>A326+1</f>
         <v>325</v>
       </c>
     </row>
@@ -16797,7 +16797,7 @@
         <v>198</v>
       </c>
       <c r="H327">
-        <f t="shared" si="5"/>
+        <f>A327+1</f>
         <v>326</v>
       </c>
     </row>
@@ -16824,7 +16824,7 @@
         <v>200</v>
       </c>
       <c r="H328">
-        <f t="shared" si="5"/>
+        <f>A328+1</f>
         <v>327</v>
       </c>
     </row>
@@ -16848,7 +16848,7 @@
         <v>124</v>
       </c>
       <c r="H329">
-        <f t="shared" si="5"/>
+        <f>A329+1</f>
         <v>328</v>
       </c>
     </row>
@@ -16875,7 +16875,7 @@
         <v>173</v>
       </c>
       <c r="H330">
-        <f t="shared" si="5"/>
+        <f>A330+1</f>
         <v>329</v>
       </c>
     </row>
@@ -16902,7 +16902,7 @@
         <v>174</v>
       </c>
       <c r="H331">
-        <f t="shared" si="5"/>
+        <f>A331+1</f>
         <v>330</v>
       </c>
     </row>
@@ -16929,7 +16929,7 @@
         <v>175</v>
       </c>
       <c r="H332">
-        <f t="shared" si="5"/>
+        <f>A332+1</f>
         <v>331</v>
       </c>
     </row>
@@ -16956,7 +16956,7 @@
         <v>176</v>
       </c>
       <c r="H333">
-        <f t="shared" si="5"/>
+        <f>A333+1</f>
         <v>332</v>
       </c>
     </row>
@@ -16983,7 +16983,7 @@
         <v>182</v>
       </c>
       <c r="H334">
-        <f t="shared" si="5"/>
+        <f>A334+1</f>
         <v>333</v>
       </c>
     </row>
@@ -17010,7 +17010,7 @@
         <v>183</v>
       </c>
       <c r="H335">
-        <f t="shared" si="5"/>
+        <f>A335+1</f>
         <v>334</v>
       </c>
     </row>
@@ -17037,7 +17037,7 @@
         <v>204</v>
       </c>
       <c r="H336">
-        <f t="shared" si="5"/>
+        <f>A336+1</f>
         <v>335</v>
       </c>
     </row>
@@ -17064,7 +17064,7 @@
         <v>193</v>
       </c>
       <c r="H337">
-        <f t="shared" si="5"/>
+        <f>A337+1</f>
         <v>336</v>
       </c>
     </row>
@@ -17091,7 +17091,7 @@
         <v>198</v>
       </c>
       <c r="H338">
-        <f t="shared" si="5"/>
+        <f>A338+1</f>
         <v>337</v>
       </c>
     </row>
@@ -17115,7 +17115,7 @@
         <v>125</v>
       </c>
       <c r="H339">
-        <f t="shared" si="5"/>
+        <f>A339+1</f>
         <v>338</v>
       </c>
     </row>
@@ -17142,7 +17142,7 @@
         <v>194</v>
       </c>
       <c r="H340">
-        <f t="shared" si="5"/>
+        <f>A340+1</f>
         <v>339</v>
       </c>
     </row>
@@ -17166,7 +17166,7 @@
         <v>126</v>
       </c>
       <c r="H341">
-        <f t="shared" si="5"/>
+        <f>A341+1</f>
         <v>340</v>
       </c>
     </row>
@@ -17190,7 +17190,7 @@
         <v>127</v>
       </c>
       <c r="H342">
-        <f t="shared" si="5"/>
+        <f>A342+1</f>
         <v>341</v>
       </c>
     </row>
@@ -17214,7 +17214,7 @@
         <v>129</v>
       </c>
       <c r="H343">
-        <f t="shared" si="5"/>
+        <f>A343+1</f>
         <v>342</v>
       </c>
     </row>
@@ -17238,7 +17238,7 @@
         <v>130</v>
       </c>
       <c r="H344">
-        <f t="shared" si="5"/>
+        <f>A344+1</f>
         <v>343</v>
       </c>
     </row>
@@ -17262,7 +17262,7 @@
         <v>131</v>
       </c>
       <c r="H345">
-        <f t="shared" si="5"/>
+        <f>A345+1</f>
         <v>344</v>
       </c>
     </row>
@@ -17289,7 +17289,7 @@
         <v>172</v>
       </c>
       <c r="H346">
-        <f t="shared" si="5"/>
+        <f>A346+1</f>
         <v>345</v>
       </c>
     </row>
@@ -17316,7 +17316,7 @@
         <v>173</v>
       </c>
       <c r="H347">
-        <f t="shared" si="5"/>
+        <f>A347+1</f>
         <v>346</v>
       </c>
     </row>
@@ -17343,7 +17343,7 @@
         <v>174</v>
       </c>
       <c r="H348">
-        <f t="shared" si="5"/>
+        <f>A348+1</f>
         <v>347</v>
       </c>
     </row>
@@ -17370,7 +17370,7 @@
         <v>175</v>
       </c>
       <c r="H349">
-        <f t="shared" si="5"/>
+        <f>A349+1</f>
         <v>348</v>
       </c>
     </row>
@@ -17397,7 +17397,7 @@
         <v>176</v>
       </c>
       <c r="H350">
-        <f t="shared" si="5"/>
+        <f>A350+1</f>
         <v>349</v>
       </c>
     </row>
@@ -17424,7 +17424,7 @@
         <v>183</v>
       </c>
       <c r="H351">
-        <f t="shared" si="5"/>
+        <f>A351+1</f>
         <v>350</v>
       </c>
     </row>
@@ -17451,7 +17451,7 @@
         <v>204</v>
       </c>
       <c r="H352">
-        <f t="shared" si="5"/>
+        <f>A352+1</f>
         <v>351</v>
       </c>
     </row>
@@ -17478,7 +17478,7 @@
         <v>198</v>
       </c>
       <c r="H353">
-        <f t="shared" si="5"/>
+        <f>A353+1</f>
         <v>352</v>
       </c>
     </row>
@@ -17502,7 +17502,7 @@
         <v>132</v>
       </c>
       <c r="H354">
-        <f t="shared" si="5"/>
+        <f>A354+1</f>
         <v>353</v>
       </c>
     </row>
@@ -17526,7 +17526,7 @@
         <v>133</v>
       </c>
       <c r="H355">
-        <f t="shared" si="5"/>
+        <f>A355+1</f>
         <v>354</v>
       </c>
     </row>
@@ -17550,7 +17550,7 @@
         <v>134</v>
       </c>
       <c r="H356">
-        <f t="shared" si="5"/>
+        <f>A356+1</f>
         <v>355</v>
       </c>
     </row>
@@ -17577,7 +17577,7 @@
         <v>194</v>
       </c>
       <c r="H357">
-        <f t="shared" si="5"/>
+        <f>A357+1</f>
         <v>356</v>
       </c>
     </row>
@@ -17604,7 +17604,7 @@
         <v>172</v>
       </c>
       <c r="H358">
-        <f t="shared" si="5"/>
+        <f>A358+1</f>
         <v>357</v>
       </c>
     </row>
@@ -17631,7 +17631,7 @@
         <v>173</v>
       </c>
       <c r="H359">
-        <f t="shared" si="5"/>
+        <f>A359+1</f>
         <v>358</v>
       </c>
     </row>
@@ -17658,7 +17658,7 @@
         <v>174</v>
       </c>
       <c r="H360">
-        <f t="shared" si="5"/>
+        <f>A360+1</f>
         <v>359</v>
       </c>
     </row>
@@ -17685,7 +17685,7 @@
         <v>175</v>
       </c>
       <c r="H361">
-        <f t="shared" si="5"/>
+        <f>A361+1</f>
         <v>360</v>
       </c>
     </row>
@@ -17712,7 +17712,7 @@
         <v>182</v>
       </c>
       <c r="H362">
-        <f t="shared" si="5"/>
+        <f>A362+1</f>
         <v>361</v>
       </c>
     </row>
@@ -17739,7 +17739,7 @@
         <v>204</v>
       </c>
       <c r="H363">
-        <f t="shared" si="5"/>
+        <f>A363+1</f>
         <v>362</v>
       </c>
     </row>
@@ -17763,7 +17763,7 @@
         <v>135</v>
       </c>
       <c r="H364">
-        <f t="shared" si="5"/>
+        <f>A364+1</f>
         <v>363</v>
       </c>
     </row>
@@ -17790,7 +17790,7 @@
         <v>172</v>
       </c>
       <c r="H365">
-        <f t="shared" si="5"/>
+        <f>A365+1</f>
         <v>364</v>
       </c>
     </row>
@@ -17817,7 +17817,7 @@
         <v>173</v>
       </c>
       <c r="H366">
-        <f t="shared" si="5"/>
+        <f>A366+1</f>
         <v>365</v>
       </c>
     </row>
@@ -17844,7 +17844,7 @@
         <v>182</v>
       </c>
       <c r="H367">
-        <f t="shared" si="5"/>
+        <f>A367+1</f>
         <v>366</v>
       </c>
     </row>
@@ -17871,7 +17871,7 @@
         <v>183</v>
       </c>
       <c r="H368">
-        <f t="shared" si="5"/>
+        <f>A368+1</f>
         <v>367</v>
       </c>
     </row>
@@ -17898,7 +17898,7 @@
         <v>204</v>
       </c>
       <c r="H369">
-        <f t="shared" si="5"/>
+        <f>A369+1</f>
         <v>368</v>
       </c>
     </row>
@@ -17922,7 +17922,7 @@
         <v>136</v>
       </c>
       <c r="H370">
-        <f t="shared" si="5"/>
+        <f>A370+1</f>
         <v>369</v>
       </c>
     </row>
@@ -17946,7 +17946,7 @@
         <v>137</v>
       </c>
       <c r="H371">
-        <f t="shared" si="5"/>
+        <f>A371+1</f>
         <v>370</v>
       </c>
     </row>
@@ -17970,7 +17970,7 @@
         <v>138</v>
       </c>
       <c r="H372">
-        <f t="shared" si="5"/>
+        <f>A372+1</f>
         <v>371</v>
       </c>
     </row>
@@ -17997,7 +17997,7 @@
         <v>174</v>
       </c>
       <c r="H373">
-        <f t="shared" si="5"/>
+        <f>A373+1</f>
         <v>372</v>
       </c>
     </row>
@@ -18024,7 +18024,7 @@
         <v>175</v>
       </c>
       <c r="H374">
-        <f t="shared" si="5"/>
+        <f>A374+1</f>
         <v>373</v>
       </c>
     </row>
@@ -18051,7 +18051,7 @@
         <v>176</v>
       </c>
       <c r="H375">
-        <f t="shared" si="5"/>
+        <f>A375+1</f>
         <v>374</v>
       </c>
     </row>
@@ -18078,7 +18078,7 @@
         <v>182</v>
       </c>
       <c r="H376">
-        <f t="shared" si="5"/>
+        <f>A376+1</f>
         <v>375</v>
       </c>
     </row>
@@ -18105,7 +18105,7 @@
         <v>183</v>
       </c>
       <c r="H377">
-        <f t="shared" si="5"/>
+        <f>A377+1</f>
         <v>376</v>
       </c>
     </row>
@@ -18132,7 +18132,7 @@
         <v>204</v>
       </c>
       <c r="H378">
-        <f t="shared" si="5"/>
+        <f>A378+1</f>
         <v>377</v>
       </c>
     </row>
@@ -18159,7 +18159,7 @@
         <v>193</v>
       </c>
       <c r="H379">
-        <f t="shared" si="5"/>
+        <f>A379+1</f>
         <v>378</v>
       </c>
     </row>
@@ -18186,7 +18186,7 @@
         <v>198</v>
       </c>
       <c r="H380">
-        <f t="shared" si="5"/>
+        <f>A380+1</f>
         <v>379</v>
       </c>
     </row>
@@ -18210,7 +18210,7 @@
         <v>190</v>
       </c>
       <c r="H381">
-        <f t="shared" si="5"/>
+        <f>A381+1</f>
         <v>380</v>
       </c>
     </row>
@@ -18234,7 +18234,7 @@
         <v>140</v>
       </c>
       <c r="H382">
-        <f t="shared" si="5"/>
+        <f>A382+1</f>
         <v>381</v>
       </c>
     </row>
@@ -18261,7 +18261,7 @@
         <v>182</v>
       </c>
       <c r="H383">
-        <f t="shared" si="5"/>
+        <f>A383+1</f>
         <v>382</v>
       </c>
     </row>
@@ -18288,7 +18288,7 @@
         <v>183</v>
       </c>
       <c r="H384">
-        <f t="shared" si="5"/>
+        <f>A384+1</f>
         <v>383</v>
       </c>
     </row>
@@ -18315,7 +18315,7 @@
         <v>189</v>
       </c>
       <c r="H385">
-        <f t="shared" si="5"/>
+        <f>A385+1</f>
         <v>384</v>
       </c>
     </row>
@@ -18342,7 +18342,7 @@
         <v>193</v>
       </c>
       <c r="H386">
-        <f t="shared" si="5"/>
+        <f>A386+1</f>
         <v>385</v>
       </c>
     </row>
@@ -18369,7 +18369,7 @@
         <v>198</v>
       </c>
       <c r="H387">
-        <f t="shared" ref="H387:H450" si="6">A387+1</f>
+        <f>A387+1</f>
         <v>386</v>
       </c>
     </row>
@@ -18396,7 +18396,7 @@
         <v>200</v>
       </c>
       <c r="H388">
-        <f t="shared" si="6"/>
+        <f>A388+1</f>
         <v>387</v>
       </c>
     </row>
@@ -18423,7 +18423,7 @@
         <v>201</v>
       </c>
       <c r="H389">
-        <f t="shared" si="6"/>
+        <f>A389+1</f>
         <v>388</v>
       </c>
     </row>
@@ -18447,7 +18447,7 @@
         <v>141</v>
       </c>
       <c r="H390">
-        <f t="shared" si="6"/>
+        <f>A390+1</f>
         <v>389</v>
       </c>
     </row>
@@ -18471,7 +18471,7 @@
         <v>143</v>
       </c>
       <c r="H391">
-        <f t="shared" si="6"/>
+        <f>A391+1</f>
         <v>390</v>
       </c>
     </row>
@@ -18495,7 +18495,7 @@
         <v>144</v>
       </c>
       <c r="H392">
-        <f t="shared" si="6"/>
+        <f>A392+1</f>
         <v>391</v>
       </c>
     </row>
@@ -18519,7 +18519,7 @@
         <v>145</v>
       </c>
       <c r="H393">
-        <f t="shared" si="6"/>
+        <f>A393+1</f>
         <v>392</v>
       </c>
     </row>
@@ -18543,7 +18543,7 @@
         <v>146</v>
       </c>
       <c r="H394">
-        <f t="shared" si="6"/>
+        <f>A394+1</f>
         <v>393</v>
       </c>
     </row>
@@ -18567,7 +18567,7 @@
         <v>147</v>
       </c>
       <c r="H395">
-        <f t="shared" si="6"/>
+        <f>A395+1</f>
         <v>394</v>
       </c>
     </row>
@@ -18594,7 +18594,7 @@
         <v>204</v>
       </c>
       <c r="H396">
-        <f t="shared" si="6"/>
+        <f>A396+1</f>
         <v>395</v>
       </c>
     </row>
@@ -18621,7 +18621,7 @@
         <v>198</v>
       </c>
       <c r="H397">
-        <f t="shared" si="6"/>
+        <f>A397+1</f>
         <v>396</v>
       </c>
     </row>
@@ -18648,7 +18648,7 @@
         <v>200</v>
       </c>
       <c r="H398">
-        <f t="shared" si="6"/>
+        <f>A398+1</f>
         <v>397</v>
       </c>
     </row>
@@ -18675,7 +18675,7 @@
         <v>208</v>
       </c>
       <c r="H399">
-        <f t="shared" si="6"/>
+        <f>A399+1</f>
         <v>398</v>
       </c>
     </row>
@@ -18702,7 +18702,7 @@
         <v>209</v>
       </c>
       <c r="H400">
-        <f t="shared" si="6"/>
+        <f>A400+1</f>
         <v>399</v>
       </c>
     </row>
@@ -18726,7 +18726,7 @@
         <v>148</v>
       </c>
       <c r="H401">
-        <f t="shared" si="6"/>
+        <f>A401+1</f>
         <v>400</v>
       </c>
     </row>
@@ -18750,7 +18750,7 @@
         <v>150</v>
       </c>
       <c r="H402">
-        <f t="shared" si="6"/>
+        <f>A402+1</f>
         <v>401</v>
       </c>
     </row>
@@ -18774,7 +18774,7 @@
         <v>151</v>
       </c>
       <c r="H403">
-        <f t="shared" si="6"/>
+        <f>A403+1</f>
         <v>402</v>
       </c>
     </row>
@@ -18798,7 +18798,7 @@
         <v>153</v>
       </c>
       <c r="H404">
-        <f t="shared" si="6"/>
+        <f>A404+1</f>
         <v>403</v>
       </c>
     </row>
@@ -18825,7 +18825,7 @@
         <v>198</v>
       </c>
       <c r="H405">
-        <f t="shared" si="6"/>
+        <f>A405+1</f>
         <v>404</v>
       </c>
     </row>
@@ -18852,7 +18852,7 @@
         <v>200</v>
       </c>
       <c r="H406">
-        <f t="shared" si="6"/>
+        <f>A406+1</f>
         <v>405</v>
       </c>
     </row>
@@ -18879,7 +18879,7 @@
         <v>201</v>
       </c>
       <c r="H407">
-        <f t="shared" si="6"/>
+        <f>A407+1</f>
         <v>406</v>
       </c>
     </row>
@@ -18906,7 +18906,7 @@
         <v>203</v>
       </c>
       <c r="H408">
-        <f t="shared" si="6"/>
+        <f>A408+1</f>
         <v>407</v>
       </c>
     </row>
@@ -18933,7 +18933,7 @@
         <v>208</v>
       </c>
       <c r="H409">
-        <f t="shared" si="6"/>
+        <f>A409+1</f>
         <v>408</v>
       </c>
     </row>
@@ -18960,7 +18960,7 @@
         <v>209</v>
       </c>
       <c r="H410">
-        <f t="shared" si="6"/>
+        <f>A410+1</f>
         <v>409</v>
       </c>
     </row>
@@ -18987,7 +18987,7 @@
         <v>217</v>
       </c>
       <c r="H411">
-        <f t="shared" si="6"/>
+        <f>A411+1</f>
         <v>410</v>
       </c>
     </row>
@@ -19011,7 +19011,7 @@
         <v>154</v>
       </c>
       <c r="H412">
-        <f t="shared" si="6"/>
+        <f>A412+1</f>
         <v>411</v>
       </c>
     </row>
@@ -19035,7 +19035,7 @@
         <v>155</v>
       </c>
       <c r="H413">
-        <f t="shared" si="6"/>
+        <f>A413+1</f>
         <v>412</v>
       </c>
     </row>
@@ -19059,7 +19059,7 @@
         <v>156</v>
       </c>
       <c r="H414">
-        <f t="shared" si="6"/>
+        <f>A414+1</f>
         <v>413</v>
       </c>
     </row>
@@ -19083,7 +19083,7 @@
         <v>157</v>
       </c>
       <c r="H415">
-        <f t="shared" si="6"/>
+        <f>A415+1</f>
         <v>414</v>
       </c>
     </row>
@@ -19107,7 +19107,7 @@
         <v>158</v>
       </c>
       <c r="H416">
-        <f t="shared" si="6"/>
+        <f>A416+1</f>
         <v>415</v>
       </c>
     </row>
@@ -19131,7 +19131,7 @@
         <v>159</v>
       </c>
       <c r="H417">
-        <f t="shared" si="6"/>
+        <f>A417+1</f>
         <v>416</v>
       </c>
     </row>
@@ -19158,7 +19158,7 @@
         <v>200</v>
       </c>
       <c r="H418">
-        <f t="shared" si="6"/>
+        <f>A418+1</f>
         <v>417</v>
       </c>
     </row>
@@ -19185,7 +19185,7 @@
         <v>201</v>
       </c>
       <c r="H419">
-        <f t="shared" si="6"/>
+        <f>A419+1</f>
         <v>418</v>
       </c>
     </row>
@@ -19212,7 +19212,7 @@
         <v>203</v>
       </c>
       <c r="H420">
-        <f t="shared" si="6"/>
+        <f>A420+1</f>
         <v>419</v>
       </c>
     </row>
@@ -19239,7 +19239,7 @@
         <v>208</v>
       </c>
       <c r="H421">
-        <f t="shared" si="6"/>
+        <f>A421+1</f>
         <v>420</v>
       </c>
     </row>
@@ -19266,7 +19266,7 @@
         <v>212</v>
       </c>
       <c r="H422">
-        <f t="shared" si="6"/>
+        <f>A422+1</f>
         <v>421</v>
       </c>
     </row>
@@ -19293,7 +19293,7 @@
         <v>217</v>
       </c>
       <c r="H423">
-        <f t="shared" si="6"/>
+        <f>A423+1</f>
         <v>422</v>
       </c>
     </row>
@@ -19320,7 +19320,7 @@
         <v>220</v>
       </c>
       <c r="H424">
-        <f t="shared" si="6"/>
+        <f>A424+1</f>
         <v>423</v>
       </c>
     </row>
@@ -19344,7 +19344,7 @@
         <v>160</v>
       </c>
       <c r="H425">
-        <f t="shared" si="6"/>
+        <f>A425+1</f>
         <v>424</v>
       </c>
     </row>
@@ -19371,7 +19371,7 @@
         <v>198</v>
       </c>
       <c r="H426">
-        <f t="shared" si="6"/>
+        <f>A426+1</f>
         <v>425</v>
       </c>
     </row>
@@ -19398,7 +19398,7 @@
         <v>200</v>
       </c>
       <c r="H427">
-        <f t="shared" si="6"/>
+        <f>A427+1</f>
         <v>426</v>
       </c>
     </row>
@@ -19425,7 +19425,7 @@
         <v>201</v>
       </c>
       <c r="H428">
-        <f t="shared" si="6"/>
+        <f>A428+1</f>
         <v>427</v>
       </c>
     </row>
@@ -19452,7 +19452,7 @@
         <v>203</v>
       </c>
       <c r="H429">
-        <f t="shared" si="6"/>
+        <f>A429+1</f>
         <v>428</v>
       </c>
     </row>
@@ -19479,7 +19479,7 @@
         <v>208</v>
       </c>
       <c r="H430">
-        <f t="shared" si="6"/>
+        <f>A430+1</f>
         <v>429</v>
       </c>
     </row>
@@ -19506,7 +19506,7 @@
         <v>209</v>
       </c>
       <c r="H431">
-        <f t="shared" si="6"/>
+        <f>A431+1</f>
         <v>430</v>
       </c>
     </row>
@@ -19533,7 +19533,7 @@
         <v>212</v>
       </c>
       <c r="H432">
-        <f t="shared" si="6"/>
+        <f>A432+1</f>
         <v>431</v>
       </c>
     </row>
@@ -19560,7 +19560,7 @@
         <v>217</v>
       </c>
       <c r="H433">
-        <f t="shared" si="6"/>
+        <f>A433+1</f>
         <v>432</v>
       </c>
     </row>
@@ -19587,7 +19587,7 @@
         <v>220</v>
       </c>
       <c r="H434">
-        <f t="shared" si="6"/>
+        <f>A434+1</f>
         <v>433</v>
       </c>
     </row>
@@ -19611,7 +19611,7 @@
         <v>194</v>
       </c>
       <c r="H435">
-        <f t="shared" si="6"/>
+        <f>A435+1</f>
         <v>434</v>
       </c>
     </row>
@@ -19635,7 +19635,7 @@
         <v>163</v>
       </c>
       <c r="H436">
-        <f t="shared" si="6"/>
+        <f>A436+1</f>
         <v>435</v>
       </c>
     </row>
@@ -19662,7 +19662,7 @@
         <v>203</v>
       </c>
       <c r="H437">
-        <f t="shared" si="6"/>
+        <f>A437+1</f>
         <v>436</v>
       </c>
     </row>
@@ -19689,7 +19689,7 @@
         <v>208</v>
       </c>
       <c r="H438">
-        <f t="shared" si="6"/>
+        <f>A438+1</f>
         <v>437</v>
       </c>
     </row>
@@ -19716,7 +19716,7 @@
         <v>209</v>
       </c>
       <c r="H439">
-        <f t="shared" si="6"/>
+        <f>A439+1</f>
         <v>438</v>
       </c>
     </row>
@@ -19743,7 +19743,7 @@
         <v>212</v>
       </c>
       <c r="H440">
-        <f t="shared" si="6"/>
+        <f>A440+1</f>
         <v>439</v>
       </c>
     </row>
@@ -19770,7 +19770,7 @@
         <v>220</v>
       </c>
       <c r="H441">
-        <f t="shared" si="6"/>
+        <f>A441+1</f>
         <v>440</v>
       </c>
     </row>
@@ -19797,7 +19797,7 @@
         <v>223</v>
       </c>
       <c r="H442">
-        <f t="shared" si="6"/>
+        <f>A442+1</f>
         <v>441</v>
       </c>
     </row>
@@ -19824,7 +19824,7 @@
         <v>224</v>
       </c>
       <c r="H443">
-        <f t="shared" si="6"/>
+        <f>A443+1</f>
         <v>442</v>
       </c>
     </row>
@@ -19851,7 +19851,7 @@
         <v>227</v>
       </c>
       <c r="H444">
-        <f t="shared" si="6"/>
+        <f>A444+1</f>
         <v>443</v>
       </c>
     </row>
@@ -19878,7 +19878,7 @@
         <v>228</v>
       </c>
       <c r="H445">
-        <f t="shared" si="6"/>
+        <f>A445+1</f>
         <v>444</v>
       </c>
     </row>
@@ -19902,7 +19902,7 @@
         <v>164</v>
       </c>
       <c r="H446">
-        <f t="shared" si="6"/>
+        <f>A446+1</f>
         <v>445</v>
       </c>
     </row>
@@ -19926,7 +19926,7 @@
         <v>165</v>
       </c>
       <c r="H447">
-        <f t="shared" si="6"/>
+        <f>A447+1</f>
         <v>446</v>
       </c>
     </row>
@@ -19950,7 +19950,7 @@
         <v>166</v>
       </c>
       <c r="H448">
-        <f t="shared" si="6"/>
+        <f>A448+1</f>
         <v>447</v>
       </c>
     </row>
@@ -19974,7 +19974,7 @@
         <v>167</v>
       </c>
       <c r="H449">
-        <f t="shared" si="6"/>
+        <f>A449+1</f>
         <v>448</v>
       </c>
     </row>
@@ -19998,7 +19998,7 @@
         <v>197</v>
       </c>
       <c r="H450">
-        <f t="shared" si="6"/>
+        <f>A450+1</f>
         <v>449</v>
       </c>
     </row>
@@ -20025,7 +20025,7 @@
         <v>230</v>
       </c>
       <c r="H451">
-        <f t="shared" ref="H451:H514" si="7">A451+1</f>
+        <f>A451+1</f>
         <v>450</v>
       </c>
     </row>
@@ -20052,7 +20052,7 @@
         <v>242</v>
       </c>
       <c r="H452">
-        <f t="shared" si="7"/>
+        <f>A452+1</f>
         <v>451</v>
       </c>
     </row>
@@ -20076,7 +20076,7 @@
         <v>169</v>
       </c>
       <c r="H453">
-        <f t="shared" si="7"/>
+        <f>A453+1</f>
         <v>452</v>
       </c>
     </row>
@@ -20100,7 +20100,7 @@
         <v>170</v>
       </c>
       <c r="H454">
-        <f t="shared" si="7"/>
+        <f>A454+1</f>
         <v>453</v>
       </c>
     </row>
@@ -20127,7 +20127,7 @@
         <v>198</v>
       </c>
       <c r="H455">
-        <f t="shared" si="7"/>
+        <f>A455+1</f>
         <v>454</v>
       </c>
     </row>
@@ -20154,7 +20154,7 @@
         <v>200</v>
       </c>
       <c r="H456">
-        <f t="shared" si="7"/>
+        <f>A456+1</f>
         <v>455</v>
       </c>
     </row>
@@ -20181,7 +20181,7 @@
         <v>208</v>
       </c>
       <c r="H457">
-        <f t="shared" si="7"/>
+        <f>A457+1</f>
         <v>456</v>
       </c>
     </row>
@@ -20208,7 +20208,7 @@
         <v>209</v>
       </c>
       <c r="H458">
-        <f t="shared" si="7"/>
+        <f>A458+1</f>
         <v>457</v>
       </c>
     </row>
@@ -20235,7 +20235,7 @@
         <v>212</v>
       </c>
       <c r="H459">
-        <f t="shared" si="7"/>
+        <f>A459+1</f>
         <v>458</v>
       </c>
     </row>
@@ -20262,7 +20262,7 @@
         <v>217</v>
       </c>
       <c r="H460">
-        <f t="shared" si="7"/>
+        <f>A460+1</f>
         <v>459</v>
       </c>
     </row>
@@ -20286,7 +20286,7 @@
         <v>26</v>
       </c>
       <c r="H461">
-        <f t="shared" si="7"/>
+        <f>A461+1</f>
         <v>460</v>
       </c>
     </row>
@@ -20313,7 +20313,7 @@
         <v>59</v>
       </c>
       <c r="H462">
-        <f t="shared" si="7"/>
+        <f>A462+1</f>
         <v>461</v>
       </c>
     </row>
@@ -20337,7 +20337,7 @@
         <v>172</v>
       </c>
       <c r="H463">
-        <f t="shared" si="7"/>
+        <f>A463+1</f>
         <v>462</v>
       </c>
     </row>
@@ -20361,7 +20361,7 @@
         <v>173</v>
       </c>
       <c r="H464">
-        <f t="shared" si="7"/>
+        <f>A464+1</f>
         <v>463</v>
       </c>
     </row>
@@ -20385,7 +20385,7 @@
         <v>174</v>
       </c>
       <c r="H465">
-        <f t="shared" si="7"/>
+        <f>A465+1</f>
         <v>464</v>
       </c>
     </row>
@@ -20409,7 +20409,7 @@
         <v>175</v>
       </c>
       <c r="H466">
-        <f t="shared" si="7"/>
+        <f>A466+1</f>
         <v>465</v>
       </c>
     </row>
@@ -20433,7 +20433,7 @@
         <v>176</v>
       </c>
       <c r="H467">
-        <f t="shared" si="7"/>
+        <f>A467+1</f>
         <v>466</v>
       </c>
     </row>
@@ -20457,7 +20457,7 @@
         <v>177</v>
       </c>
       <c r="H468">
-        <f t="shared" si="7"/>
+        <f>A468+1</f>
         <v>467</v>
       </c>
     </row>
@@ -20484,7 +20484,7 @@
         <v>212</v>
       </c>
       <c r="H469">
-        <f t="shared" si="7"/>
+        <f>A469+1</f>
         <v>468</v>
       </c>
     </row>
@@ -20511,7 +20511,7 @@
         <v>217</v>
       </c>
       <c r="H470">
-        <f t="shared" si="7"/>
+        <f>A470+1</f>
         <v>469</v>
       </c>
     </row>
@@ -20538,7 +20538,7 @@
         <v>223</v>
       </c>
       <c r="H471">
-        <f t="shared" si="7"/>
+        <f>A471+1</f>
         <v>470</v>
       </c>
     </row>
@@ -20565,7 +20565,7 @@
         <v>224</v>
       </c>
       <c r="H472">
-        <f t="shared" si="7"/>
+        <f>A472+1</f>
         <v>471</v>
       </c>
     </row>
@@ -20592,7 +20592,7 @@
         <v>227</v>
       </c>
       <c r="H473">
-        <f t="shared" si="7"/>
+        <f>A473+1</f>
         <v>472</v>
       </c>
     </row>
@@ -20619,7 +20619,7 @@
         <v>228</v>
       </c>
       <c r="H474">
-        <f t="shared" si="7"/>
+        <f>A474+1</f>
         <v>473</v>
       </c>
     </row>
@@ -20646,7 +20646,7 @@
         <v>234</v>
       </c>
       <c r="H475">
-        <f t="shared" si="7"/>
+        <f>A475+1</f>
         <v>474</v>
       </c>
     </row>
@@ -20673,7 +20673,7 @@
         <v>235</v>
       </c>
       <c r="H476">
-        <f t="shared" si="7"/>
+        <f>A476+1</f>
         <v>475</v>
       </c>
     </row>
@@ -20700,7 +20700,7 @@
         <v>238</v>
       </c>
       <c r="H477">
-        <f t="shared" si="7"/>
+        <f>A477+1</f>
         <v>476</v>
       </c>
     </row>
@@ -20724,7 +20724,7 @@
         <v>178</v>
       </c>
       <c r="H478">
-        <f t="shared" si="7"/>
+        <f>A478+1</f>
         <v>477</v>
       </c>
     </row>
@@ -20751,7 +20751,7 @@
         <v>217</v>
       </c>
       <c r="H479">
-        <f t="shared" si="7"/>
+        <f>A479+1</f>
         <v>478</v>
       </c>
     </row>
@@ -20778,7 +20778,7 @@
         <v>227</v>
       </c>
       <c r="H480">
-        <f t="shared" si="7"/>
+        <f>A480+1</f>
         <v>479</v>
       </c>
     </row>
@@ -20805,7 +20805,7 @@
         <v>235</v>
       </c>
       <c r="H481">
-        <f t="shared" si="7"/>
+        <f>A481+1</f>
         <v>480</v>
       </c>
     </row>
@@ -20829,7 +20829,7 @@
         <v>179</v>
       </c>
       <c r="H482">
-        <f t="shared" si="7"/>
+        <f>A482+1</f>
         <v>481</v>
       </c>
     </row>
@@ -20856,7 +20856,7 @@
         <v>235</v>
       </c>
       <c r="H483">
-        <f t="shared" si="7"/>
+        <f>A483+1</f>
         <v>482</v>
       </c>
     </row>
@@ -20883,7 +20883,7 @@
         <v>236</v>
       </c>
       <c r="H484">
-        <f t="shared" si="7"/>
+        <f>A484+1</f>
         <v>483</v>
       </c>
     </row>
@@ -20910,7 +20910,7 @@
         <v>238</v>
       </c>
       <c r="H485">
-        <f t="shared" si="7"/>
+        <f>A485+1</f>
         <v>484</v>
       </c>
     </row>
@@ -20937,7 +20937,7 @@
         <v>240</v>
       </c>
       <c r="H486">
-        <f t="shared" si="7"/>
+        <f>A486+1</f>
         <v>485</v>
       </c>
     </row>
@@ -20964,7 +20964,7 @@
         <v>241</v>
       </c>
       <c r="H487">
-        <f t="shared" si="7"/>
+        <f>A487+1</f>
         <v>486</v>
       </c>
     </row>
@@ -20991,7 +20991,7 @@
         <v>246</v>
       </c>
       <c r="H488">
-        <f t="shared" si="7"/>
+        <f>A488+1</f>
         <v>487</v>
       </c>
     </row>
@@ -21018,7 +21018,7 @@
         <v>252</v>
       </c>
       <c r="H489">
-        <f t="shared" si="7"/>
+        <f>A489+1</f>
         <v>488</v>
       </c>
     </row>
@@ -21042,7 +21042,7 @@
         <v>180</v>
       </c>
       <c r="H490">
-        <f t="shared" si="7"/>
+        <f>A490+1</f>
         <v>489</v>
       </c>
     </row>
@@ -21069,7 +21069,7 @@
         <v>209</v>
       </c>
       <c r="H491">
-        <f t="shared" si="7"/>
+        <f>A491+1</f>
         <v>490</v>
       </c>
     </row>
@@ -21096,7 +21096,7 @@
         <v>212</v>
       </c>
       <c r="H492">
-        <f t="shared" si="7"/>
+        <f>A492+1</f>
         <v>491</v>
       </c>
     </row>
@@ -21123,7 +21123,7 @@
         <v>217</v>
       </c>
       <c r="H493">
-        <f t="shared" si="7"/>
+        <f>A493+1</f>
         <v>492</v>
       </c>
     </row>
@@ -21150,7 +21150,7 @@
         <v>220</v>
       </c>
       <c r="H494">
-        <f t="shared" si="7"/>
+        <f>A494+1</f>
         <v>493</v>
       </c>
     </row>
@@ -21177,7 +21177,7 @@
         <v>223</v>
       </c>
       <c r="H495">
-        <f t="shared" si="7"/>
+        <f>A495+1</f>
         <v>494</v>
       </c>
     </row>
@@ -21204,7 +21204,7 @@
         <v>224</v>
       </c>
       <c r="H496">
-        <f t="shared" si="7"/>
+        <f>A496+1</f>
         <v>495</v>
       </c>
     </row>
@@ -21231,7 +21231,7 @@
         <v>227</v>
       </c>
       <c r="H497">
-        <f t="shared" si="7"/>
+        <f>A497+1</f>
         <v>496</v>
       </c>
     </row>
@@ -21258,7 +21258,7 @@
         <v>228</v>
       </c>
       <c r="H498">
-        <f t="shared" si="7"/>
+        <f>A498+1</f>
         <v>497</v>
       </c>
     </row>
@@ -21285,7 +21285,7 @@
         <v>233</v>
       </c>
       <c r="H499">
-        <f t="shared" si="7"/>
+        <f>A499+1</f>
         <v>498</v>
       </c>
     </row>
@@ -21312,7 +21312,7 @@
         <v>235</v>
       </c>
       <c r="H500">
-        <f t="shared" si="7"/>
+        <f>A500+1</f>
         <v>499</v>
       </c>
     </row>
@@ -21336,7 +21336,7 @@
         <v>181</v>
       </c>
       <c r="H501">
-        <f t="shared" si="7"/>
+        <f>A501+1</f>
         <v>500</v>
       </c>
     </row>
@@ -21360,7 +21360,7 @@
         <v>182</v>
       </c>
       <c r="H502">
-        <f t="shared" si="7"/>
+        <f>A502+1</f>
         <v>501</v>
       </c>
     </row>
@@ -21384,7 +21384,7 @@
         <v>183</v>
       </c>
       <c r="H503">
-        <f t="shared" si="7"/>
+        <f>A503+1</f>
         <v>502</v>
       </c>
     </row>
@@ -21408,7 +21408,7 @@
         <v>184</v>
       </c>
       <c r="H504">
-        <f t="shared" si="7"/>
+        <f>A504+1</f>
         <v>503</v>
       </c>
     </row>
@@ -21435,7 +21435,7 @@
         <v>223</v>
       </c>
       <c r="H505">
-        <f t="shared" si="7"/>
+        <f>A505+1</f>
         <v>504</v>
       </c>
     </row>
@@ -21462,7 +21462,7 @@
         <v>224</v>
       </c>
       <c r="H506">
-        <f t="shared" si="7"/>
+        <f>A506+1</f>
         <v>505</v>
       </c>
     </row>
@@ -21489,7 +21489,7 @@
         <v>227</v>
       </c>
       <c r="H507">
-        <f t="shared" si="7"/>
+        <f>A507+1</f>
         <v>506</v>
       </c>
     </row>
@@ -21516,7 +21516,7 @@
         <v>228</v>
       </c>
       <c r="H508">
-        <f t="shared" si="7"/>
+        <f>A508+1</f>
         <v>507</v>
       </c>
     </row>
@@ -21543,7 +21543,7 @@
         <v>233</v>
       </c>
       <c r="H509">
-        <f t="shared" si="7"/>
+        <f>A509+1</f>
         <v>508</v>
       </c>
     </row>
@@ -21570,7 +21570,7 @@
         <v>234</v>
       </c>
       <c r="H510">
-        <f t="shared" si="7"/>
+        <f>A510+1</f>
         <v>509</v>
       </c>
     </row>
@@ -21597,7 +21597,7 @@
         <v>235</v>
       </c>
       <c r="H511">
-        <f t="shared" si="7"/>
+        <f>A511+1</f>
         <v>510</v>
       </c>
     </row>
@@ -21624,7 +21624,7 @@
         <v>238</v>
       </c>
       <c r="H512">
-        <f t="shared" si="7"/>
+        <f>A512+1</f>
         <v>511</v>
       </c>
     </row>
@@ -21651,7 +21651,7 @@
         <v>240</v>
       </c>
       <c r="H513">
-        <f t="shared" si="7"/>
+        <f>A513+1</f>
         <v>512</v>
       </c>
     </row>
@@ -21678,7 +21678,7 @@
         <v>241</v>
       </c>
       <c r="H514">
-        <f t="shared" si="7"/>
+        <f>A514+1</f>
         <v>513</v>
       </c>
     </row>
@@ -21705,7 +21705,7 @@
         <v>246</v>
       </c>
       <c r="H515">
-        <f t="shared" ref="H515:H578" si="8">A515+1</f>
+        <f>A515+1</f>
         <v>514</v>
       </c>
     </row>
@@ -21729,7 +21729,7 @@
         <v>185</v>
       </c>
       <c r="H516">
-        <f t="shared" si="8"/>
+        <f>A516+1</f>
         <v>515</v>
       </c>
     </row>
@@ -21756,7 +21756,7 @@
         <v>227</v>
       </c>
       <c r="H517">
-        <f t="shared" si="8"/>
+        <f>A517+1</f>
         <v>516</v>
       </c>
     </row>
@@ -21783,7 +21783,7 @@
         <v>235</v>
       </c>
       <c r="H518">
-        <f t="shared" si="8"/>
+        <f>A518+1</f>
         <v>517</v>
       </c>
     </row>
@@ -21810,7 +21810,7 @@
         <v>241</v>
       </c>
       <c r="H519">
-        <f t="shared" si="8"/>
+        <f>A519+1</f>
         <v>518</v>
       </c>
     </row>
@@ -21834,7 +21834,7 @@
         <v>186</v>
       </c>
       <c r="H520">
-        <f t="shared" si="8"/>
+        <f>A520+1</f>
         <v>519</v>
       </c>
     </row>
@@ -21861,7 +21861,7 @@
         <v>220</v>
       </c>
       <c r="H521">
-        <f t="shared" si="8"/>
+        <f>A521+1</f>
         <v>520</v>
       </c>
     </row>
@@ -21888,7 +21888,7 @@
         <v>224</v>
       </c>
       <c r="H522">
-        <f t="shared" si="8"/>
+        <f>A522+1</f>
         <v>521</v>
       </c>
     </row>
@@ -21915,7 +21915,7 @@
         <v>227</v>
       </c>
       <c r="H523">
-        <f t="shared" si="8"/>
+        <f>A523+1</f>
         <v>522</v>
       </c>
     </row>
@@ -21942,7 +21942,7 @@
         <v>233</v>
       </c>
       <c r="H524">
-        <f t="shared" si="8"/>
+        <f>A524+1</f>
         <v>523</v>
       </c>
     </row>
@@ -21969,7 +21969,7 @@
         <v>234</v>
       </c>
       <c r="H525">
-        <f t="shared" si="8"/>
+        <f>A525+1</f>
         <v>524</v>
       </c>
     </row>
@@ -21996,7 +21996,7 @@
         <v>235</v>
       </c>
       <c r="H526">
-        <f t="shared" si="8"/>
+        <f>A526+1</f>
         <v>525</v>
       </c>
     </row>
@@ -22023,7 +22023,7 @@
         <v>238</v>
       </c>
       <c r="H527">
-        <f t="shared" si="8"/>
+        <f>A527+1</f>
         <v>526</v>
       </c>
     </row>
@@ -22050,7 +22050,7 @@
         <v>241</v>
       </c>
       <c r="H528">
-        <f t="shared" si="8"/>
+        <f>A528+1</f>
         <v>527</v>
       </c>
     </row>
@@ -22074,7 +22074,7 @@
         <v>187</v>
       </c>
       <c r="H529">
-        <f t="shared" si="8"/>
+        <f>A529+1</f>
         <v>528</v>
       </c>
     </row>
@@ -22101,7 +22101,7 @@
         <v>220</v>
       </c>
       <c r="H530">
-        <f t="shared" si="8"/>
+        <f>A530+1</f>
         <v>529</v>
       </c>
     </row>
@@ -22128,7 +22128,7 @@
         <v>223</v>
       </c>
       <c r="H531">
-        <f t="shared" si="8"/>
+        <f>A531+1</f>
         <v>530</v>
       </c>
     </row>
@@ -22155,7 +22155,7 @@
         <v>224</v>
       </c>
       <c r="H532">
-        <f t="shared" si="8"/>
+        <f>A532+1</f>
         <v>531</v>
       </c>
     </row>
@@ -22182,7 +22182,7 @@
         <v>227</v>
       </c>
       <c r="H533">
-        <f t="shared" si="8"/>
+        <f>A533+1</f>
         <v>532</v>
       </c>
     </row>
@@ -22209,7 +22209,7 @@
         <v>233</v>
       </c>
       <c r="H534">
-        <f t="shared" si="8"/>
+        <f>A534+1</f>
         <v>533</v>
       </c>
     </row>
@@ -22236,7 +22236,7 @@
         <v>234</v>
       </c>
       <c r="H535">
-        <f t="shared" si="8"/>
+        <f>A535+1</f>
         <v>534</v>
       </c>
     </row>
@@ -22263,7 +22263,7 @@
         <v>235</v>
       </c>
       <c r="H536">
-        <f t="shared" si="8"/>
+        <f>A536+1</f>
         <v>535</v>
       </c>
     </row>
@@ -22290,7 +22290,7 @@
         <v>238</v>
       </c>
       <c r="H537">
-        <f t="shared" si="8"/>
+        <f>A537+1</f>
         <v>536</v>
       </c>
     </row>
@@ -22317,7 +22317,7 @@
         <v>241</v>
       </c>
       <c r="H538">
-        <f t="shared" si="8"/>
+        <f>A538+1</f>
         <v>537</v>
       </c>
     </row>
@@ -22341,7 +22341,7 @@
         <v>199</v>
       </c>
       <c r="H539">
-        <f t="shared" si="8"/>
+        <f>A539+1</f>
         <v>538</v>
       </c>
     </row>
@@ -22368,7 +22368,7 @@
         <v>230</v>
       </c>
       <c r="H540">
-        <f t="shared" si="8"/>
+        <f>A540+1</f>
         <v>539</v>
       </c>
     </row>
@@ -22395,7 +22395,7 @@
         <v>242</v>
       </c>
       <c r="H541">
-        <f t="shared" si="8"/>
+        <f>A541+1</f>
         <v>540</v>
       </c>
     </row>
@@ -22419,7 +22419,7 @@
         <v>189</v>
       </c>
       <c r="H542">
-        <f t="shared" si="8"/>
+        <f>A542+1</f>
         <v>541</v>
       </c>
     </row>
@@ -22443,7 +22443,7 @@
         <v>204</v>
       </c>
       <c r="H543">
-        <f t="shared" si="8"/>
+        <f>A543+1</f>
         <v>542</v>
       </c>
     </row>
@@ -22470,7 +22470,7 @@
         <v>230</v>
       </c>
       <c r="H544">
-        <f t="shared" si="8"/>
+        <f>A544+1</f>
         <v>543</v>
       </c>
     </row>
@@ -22494,7 +22494,7 @@
         <v>191</v>
       </c>
       <c r="H545">
-        <f t="shared" si="8"/>
+        <f>A545+1</f>
         <v>544</v>
       </c>
     </row>
@@ -22521,7 +22521,7 @@
         <v>228</v>
       </c>
       <c r="H546">
-        <f t="shared" si="8"/>
+        <f>A546+1</f>
         <v>545</v>
       </c>
     </row>
@@ -22548,7 +22548,7 @@
         <v>233</v>
       </c>
       <c r="H547">
-        <f t="shared" si="8"/>
+        <f>A547+1</f>
         <v>546</v>
       </c>
     </row>
@@ -22575,7 +22575,7 @@
         <v>234</v>
       </c>
       <c r="H548">
-        <f t="shared" si="8"/>
+        <f>A548+1</f>
         <v>547</v>
       </c>
     </row>
@@ -22602,7 +22602,7 @@
         <v>235</v>
       </c>
       <c r="H549">
-        <f t="shared" si="8"/>
+        <f>A549+1</f>
         <v>548</v>
       </c>
     </row>
@@ -22629,7 +22629,7 @@
         <v>236</v>
       </c>
       <c r="H550">
-        <f t="shared" si="8"/>
+        <f>A550+1</f>
         <v>549</v>
       </c>
     </row>
@@ -22656,7 +22656,7 @@
         <v>238</v>
       </c>
       <c r="H551">
-        <f t="shared" si="8"/>
+        <f>A551+1</f>
         <v>550</v>
       </c>
     </row>
@@ -22683,7 +22683,7 @@
         <v>240</v>
       </c>
       <c r="H552">
-        <f t="shared" si="8"/>
+        <f>A552+1</f>
         <v>551</v>
       </c>
     </row>
@@ -22710,7 +22710,7 @@
         <v>246</v>
       </c>
       <c r="H553">
-        <f t="shared" si="8"/>
+        <f>A553+1</f>
         <v>552</v>
       </c>
     </row>
@@ -22734,7 +22734,7 @@
         <v>192</v>
       </c>
       <c r="H554">
-        <f t="shared" si="8"/>
+        <f>A554+1</f>
         <v>553</v>
       </c>
     </row>
@@ -22758,7 +22758,7 @@
         <v>193</v>
       </c>
       <c r="H555">
-        <f t="shared" si="8"/>
+        <f>A555+1</f>
         <v>554</v>
       </c>
     </row>
@@ -22782,7 +22782,7 @@
         <v>118</v>
       </c>
       <c r="H556">
-        <f t="shared" si="8"/>
+        <f>A556+1</f>
         <v>555</v>
       </c>
     </row>
@@ -22809,7 +22809,7 @@
         <v>70</v>
       </c>
       <c r="H557">
-        <f t="shared" si="8"/>
+        <f>A557+1</f>
         <v>556</v>
       </c>
     </row>
@@ -22836,7 +22836,7 @@
         <v>72</v>
       </c>
       <c r="H558">
-        <f t="shared" si="8"/>
+        <f>A558+1</f>
         <v>557</v>
       </c>
     </row>
@@ -22863,7 +22863,7 @@
         <v>77</v>
       </c>
       <c r="H559">
-        <f t="shared" si="8"/>
+        <f>A559+1</f>
         <v>558</v>
       </c>
     </row>
@@ -22890,7 +22890,7 @@
         <v>80</v>
       </c>
       <c r="H560">
-        <f t="shared" si="8"/>
+        <f>A560+1</f>
         <v>559</v>
       </c>
     </row>
@@ -22917,7 +22917,7 @@
         <v>82</v>
       </c>
       <c r="H561">
-        <f t="shared" si="8"/>
+        <f>A561+1</f>
         <v>560</v>
       </c>
     </row>
@@ -22944,7 +22944,7 @@
         <v>85</v>
       </c>
       <c r="H562">
-        <f t="shared" si="8"/>
+        <f>A562+1</f>
         <v>561</v>
       </c>
     </row>
@@ -22968,7 +22968,7 @@
         <v>195</v>
       </c>
       <c r="H563">
-        <f t="shared" si="8"/>
+        <f>A563+1</f>
         <v>562</v>
       </c>
     </row>
@@ -22995,7 +22995,7 @@
         <v>234</v>
       </c>
       <c r="H564">
-        <f t="shared" si="8"/>
+        <f>A564+1</f>
         <v>563</v>
       </c>
     </row>
@@ -23022,7 +23022,7 @@
         <v>235</v>
       </c>
       <c r="H565">
-        <f t="shared" si="8"/>
+        <f>A565+1</f>
         <v>564</v>
       </c>
     </row>
@@ -23049,7 +23049,7 @@
         <v>238</v>
       </c>
       <c r="H566">
-        <f t="shared" si="8"/>
+        <f>A566+1</f>
         <v>565</v>
       </c>
     </row>
@@ -23076,7 +23076,7 @@
         <v>240</v>
       </c>
       <c r="H567">
-        <f t="shared" si="8"/>
+        <f>A567+1</f>
         <v>566</v>
       </c>
     </row>
@@ -23103,7 +23103,7 @@
         <v>241</v>
       </c>
       <c r="H568">
-        <f t="shared" si="8"/>
+        <f>A568+1</f>
         <v>567</v>
       </c>
     </row>
@@ -23127,7 +23127,7 @@
         <v>196</v>
       </c>
       <c r="H569">
-        <f t="shared" si="8"/>
+        <f>A569+1</f>
         <v>568</v>
       </c>
     </row>
@@ -23151,7 +23151,7 @@
         <v>248</v>
       </c>
       <c r="H570">
-        <f t="shared" si="8"/>
+        <f>A570+1</f>
         <v>569</v>
       </c>
     </row>
@@ -23178,7 +23178,7 @@
         <v>25</v>
       </c>
       <c r="H571">
-        <f t="shared" si="8"/>
+        <f>A571+1</f>
         <v>570</v>
       </c>
     </row>
@@ -23202,7 +23202,7 @@
         <v>198</v>
       </c>
       <c r="H572">
-        <f t="shared" si="8"/>
+        <f>A572+1</f>
         <v>571</v>
       </c>
     </row>
@@ -23226,7 +23226,7 @@
         <v>20</v>
       </c>
       <c r="H573">
-        <f t="shared" si="8"/>
+        <f>A573+1</f>
         <v>572</v>
       </c>
     </row>
@@ -23253,7 +23253,7 @@
         <v>59</v>
       </c>
       <c r="H574">
-        <f t="shared" si="8"/>
+        <f>A574+1</f>
         <v>573</v>
       </c>
     </row>
@@ -23277,7 +23277,7 @@
         <v>200</v>
       </c>
       <c r="H575">
-        <f t="shared" si="8"/>
+        <f>A575+1</f>
         <v>574</v>
       </c>
     </row>
@@ -23301,7 +23301,7 @@
         <v>201</v>
       </c>
       <c r="H576">
-        <f t="shared" si="8"/>
+        <f>A576+1</f>
         <v>575</v>
       </c>
     </row>
@@ -23325,7 +23325,7 @@
         <v>202</v>
       </c>
       <c r="H577">
-        <f t="shared" si="8"/>
+        <f>A577+1</f>
         <v>576</v>
       </c>
     </row>
@@ -23352,7 +23352,7 @@
         <v>233</v>
       </c>
       <c r="H578">
-        <f t="shared" si="8"/>
+        <f>A578+1</f>
         <v>577</v>
       </c>
     </row>
@@ -23379,7 +23379,7 @@
         <v>235</v>
       </c>
       <c r="H579">
-        <f t="shared" ref="H579:H642" si="9">A579+1</f>
+        <f>A579+1</f>
         <v>578</v>
       </c>
     </row>
@@ -23406,7 +23406,7 @@
         <v>238</v>
       </c>
       <c r="H580">
-        <f t="shared" si="9"/>
+        <f>A580+1</f>
         <v>579</v>
       </c>
     </row>
@@ -23433,7 +23433,7 @@
         <v>241</v>
       </c>
       <c r="H581">
-        <f t="shared" si="9"/>
+        <f>A581+1</f>
         <v>580</v>
       </c>
     </row>
@@ -23457,7 +23457,7 @@
         <v>203</v>
       </c>
       <c r="H582">
-        <f t="shared" si="9"/>
+        <f>A582+1</f>
         <v>581</v>
       </c>
     </row>
@@ -23481,7 +23481,7 @@
         <v>287</v>
       </c>
       <c r="H583">
-        <f t="shared" si="9"/>
+        <f>A583+1</f>
         <v>582</v>
       </c>
     </row>
@@ -23508,7 +23508,7 @@
         <v>59</v>
       </c>
       <c r="H584">
-        <f t="shared" si="9"/>
+        <f>A584+1</f>
         <v>583</v>
       </c>
     </row>
@@ -23535,7 +23535,7 @@
         <v>70</v>
       </c>
       <c r="H585">
-        <f t="shared" si="9"/>
+        <f>A585+1</f>
         <v>584</v>
       </c>
     </row>
@@ -23559,7 +23559,7 @@
         <v>205</v>
       </c>
       <c r="H586">
-        <f t="shared" si="9"/>
+        <f>A586+1</f>
         <v>585</v>
       </c>
     </row>
@@ -23586,7 +23586,7 @@
         <v>240</v>
       </c>
       <c r="H587">
-        <f t="shared" si="9"/>
+        <f>A587+1</f>
         <v>586</v>
       </c>
     </row>
@@ -23613,7 +23613,7 @@
         <v>241</v>
       </c>
       <c r="H588">
-        <f t="shared" si="9"/>
+        <f>A588+1</f>
         <v>587</v>
       </c>
     </row>
@@ -23640,7 +23640,7 @@
         <v>252</v>
       </c>
       <c r="H589">
-        <f t="shared" si="9"/>
+        <f>A589+1</f>
         <v>588</v>
       </c>
     </row>
@@ -23667,7 +23667,7 @@
         <v>255</v>
       </c>
       <c r="H590">
-        <f t="shared" si="9"/>
+        <f>A590+1</f>
         <v>589</v>
       </c>
     </row>
@@ -23691,7 +23691,7 @@
         <v>206</v>
       </c>
       <c r="H591">
-        <f t="shared" si="9"/>
+        <f>A591+1</f>
         <v>590</v>
       </c>
     </row>
@@ -23718,7 +23718,7 @@
         <v>238</v>
       </c>
       <c r="H592">
-        <f t="shared" si="9"/>
+        <f>A592+1</f>
         <v>591</v>
       </c>
     </row>
@@ -23745,7 +23745,7 @@
         <v>240</v>
       </c>
       <c r="H593">
-        <f t="shared" si="9"/>
+        <f>A593+1</f>
         <v>592</v>
       </c>
     </row>
@@ -23772,7 +23772,7 @@
         <v>241</v>
       </c>
       <c r="H594">
-        <f t="shared" si="9"/>
+        <f>A594+1</f>
         <v>593</v>
       </c>
     </row>
@@ -23799,7 +23799,7 @@
         <v>246</v>
       </c>
       <c r="H595">
-        <f t="shared" si="9"/>
+        <f>A595+1</f>
         <v>594</v>
       </c>
     </row>
@@ -23826,7 +23826,7 @@
         <v>255</v>
       </c>
       <c r="H596">
-        <f t="shared" si="9"/>
+        <f>A596+1</f>
         <v>595</v>
       </c>
     </row>
@@ -23853,7 +23853,7 @@
         <v>259</v>
       </c>
       <c r="H597">
-        <f t="shared" si="9"/>
+        <f>A597+1</f>
         <v>596</v>
       </c>
     </row>
@@ -23877,7 +23877,7 @@
         <v>207</v>
       </c>
       <c r="H598">
-        <f t="shared" si="9"/>
+        <f>A598+1</f>
         <v>597</v>
       </c>
     </row>
@@ -23904,7 +23904,7 @@
         <v>246</v>
       </c>
       <c r="H599">
-        <f t="shared" si="9"/>
+        <f>A599+1</f>
         <v>598</v>
       </c>
     </row>
@@ -23931,7 +23931,7 @@
         <v>252</v>
       </c>
       <c r="H600">
-        <f t="shared" si="9"/>
+        <f>A600+1</f>
         <v>599</v>
       </c>
     </row>
@@ -23958,7 +23958,7 @@
         <v>255</v>
       </c>
       <c r="H601">
-        <f t="shared" si="9"/>
+        <f>A601+1</f>
         <v>600</v>
       </c>
     </row>
@@ -23985,7 +23985,7 @@
         <v>259</v>
       </c>
       <c r="H602">
-        <f t="shared" si="9"/>
+        <f>A602+1</f>
         <v>601</v>
       </c>
     </row>
@@ -24012,7 +24012,7 @@
         <v>266</v>
       </c>
       <c r="H603">
-        <f t="shared" si="9"/>
+        <f>A603+1</f>
         <v>602</v>
       </c>
     </row>
@@ -24036,7 +24036,7 @@
         <v>208</v>
       </c>
       <c r="H604">
-        <f t="shared" si="9"/>
+        <f>A604+1</f>
         <v>603</v>
       </c>
     </row>
@@ -24060,7 +24060,7 @@
         <v>209</v>
       </c>
       <c r="H605">
-        <f t="shared" si="9"/>
+        <f>A605+1</f>
         <v>604</v>
       </c>
     </row>
@@ -24084,7 +24084,7 @@
         <v>215</v>
       </c>
       <c r="H606">
-        <f t="shared" si="9"/>
+        <f>A606+1</f>
         <v>605</v>
       </c>
     </row>
@@ -24111,7 +24111,7 @@
         <v>254</v>
       </c>
       <c r="H607">
-        <f t="shared" si="9"/>
+        <f>A607+1</f>
         <v>606</v>
       </c>
     </row>
@@ -24138,7 +24138,7 @@
         <v>260</v>
       </c>
       <c r="H608">
-        <f t="shared" si="9"/>
+        <f>A608+1</f>
         <v>607</v>
       </c>
     </row>
@@ -24165,7 +24165,7 @@
         <v>264</v>
       </c>
       <c r="H609">
-        <f t="shared" si="9"/>
+        <f>A609+1</f>
         <v>608</v>
       </c>
     </row>
@@ -24189,7 +24189,7 @@
         <v>211</v>
       </c>
       <c r="H610">
-        <f t="shared" si="9"/>
+        <f>A610+1</f>
         <v>609</v>
       </c>
     </row>
@@ -24213,7 +24213,7 @@
         <v>212</v>
       </c>
       <c r="H611">
-        <f t="shared" si="9"/>
+        <f>A611+1</f>
         <v>610</v>
       </c>
     </row>
@@ -24237,7 +24237,7 @@
         <v>213</v>
       </c>
       <c r="H612">
-        <f t="shared" si="9"/>
+        <f>A612+1</f>
         <v>611</v>
       </c>
     </row>
@@ -24261,7 +24261,7 @@
         <v>214</v>
       </c>
       <c r="H613">
-        <f t="shared" si="9"/>
+        <f>A613+1</f>
         <v>612</v>
       </c>
     </row>
@@ -24285,7 +24285,7 @@
         <v>217</v>
       </c>
       <c r="H614">
-        <f t="shared" si="9"/>
+        <f>A614+1</f>
         <v>613</v>
       </c>
     </row>
@@ -24312,7 +24312,7 @@
         <v>254</v>
       </c>
       <c r="H615">
-        <f t="shared" si="9"/>
+        <f>A615+1</f>
         <v>614</v>
       </c>
     </row>
@@ -24339,7 +24339,7 @@
         <v>260</v>
       </c>
       <c r="H616">
-        <f t="shared" si="9"/>
+        <f>A616+1</f>
         <v>615</v>
       </c>
     </row>
@@ -24366,7 +24366,7 @@
         <v>267</v>
       </c>
       <c r="H617">
-        <f t="shared" si="9"/>
+        <f>A617+1</f>
         <v>616</v>
       </c>
     </row>
@@ -24393,7 +24393,7 @@
         <v>273</v>
       </c>
       <c r="H618">
-        <f t="shared" si="9"/>
+        <f>A618+1</f>
         <v>617</v>
       </c>
     </row>
@@ -24417,7 +24417,7 @@
         <v>216</v>
       </c>
       <c r="H619">
-        <f t="shared" si="9"/>
+        <f>A619+1</f>
         <v>618</v>
       </c>
     </row>
@@ -24444,7 +24444,7 @@
         <v>252</v>
       </c>
       <c r="H620">
-        <f t="shared" si="9"/>
+        <f>A620+1</f>
         <v>619</v>
       </c>
     </row>
@@ -24471,7 +24471,7 @@
         <v>259</v>
       </c>
       <c r="H621">
-        <f t="shared" si="9"/>
+        <f>A621+1</f>
         <v>620</v>
       </c>
     </row>
@@ -24498,7 +24498,7 @@
         <v>262</v>
       </c>
       <c r="H622">
-        <f t="shared" si="9"/>
+        <f>A622+1</f>
         <v>621</v>
       </c>
     </row>
@@ -24525,7 +24525,7 @@
         <v>266</v>
       </c>
       <c r="H623">
-        <f t="shared" si="9"/>
+        <f>A623+1</f>
         <v>622</v>
       </c>
     </row>
@@ -24552,7 +24552,7 @@
         <v>271</v>
       </c>
       <c r="H624">
-        <f t="shared" si="9"/>
+        <f>A624+1</f>
         <v>623</v>
       </c>
     </row>
@@ -24576,7 +24576,7 @@
         <v>237</v>
       </c>
       <c r="H625">
-        <f t="shared" si="9"/>
+        <f>A625+1</f>
         <v>624</v>
       </c>
     </row>
@@ -24603,7 +24603,7 @@
         <v>260</v>
       </c>
       <c r="H626">
-        <f t="shared" si="9"/>
+        <f>A626+1</f>
         <v>625</v>
       </c>
     </row>
@@ -24630,7 +24630,7 @@
         <v>264</v>
       </c>
       <c r="H627">
-        <f t="shared" si="9"/>
+        <f>A627+1</f>
         <v>626</v>
       </c>
     </row>
@@ -24657,7 +24657,7 @@
         <v>273</v>
       </c>
       <c r="H628">
-        <f t="shared" si="9"/>
+        <f>A628+1</f>
         <v>627</v>
       </c>
     </row>
@@ -24684,7 +24684,7 @@
         <v>286</v>
       </c>
       <c r="H629">
-        <f t="shared" si="9"/>
+        <f>A629+1</f>
         <v>628</v>
       </c>
     </row>
@@ -24711,7 +24711,7 @@
         <v>276</v>
       </c>
       <c r="H630">
-        <f t="shared" si="9"/>
+        <f>A630+1</f>
         <v>629</v>
       </c>
     </row>
@@ -24738,7 +24738,7 @@
         <v>277</v>
       </c>
       <c r="H631">
-        <f t="shared" si="9"/>
+        <f>A631+1</f>
         <v>630</v>
       </c>
     </row>
@@ -24762,7 +24762,7 @@
         <v>218</v>
       </c>
       <c r="H632">
-        <f t="shared" si="9"/>
+        <f>A632+1</f>
         <v>631</v>
       </c>
     </row>
@@ -24789,7 +24789,7 @@
         <v>252</v>
       </c>
       <c r="H633">
-        <f t="shared" si="9"/>
+        <f>A633+1</f>
         <v>632</v>
       </c>
     </row>
@@ -24816,7 +24816,7 @@
         <v>255</v>
       </c>
       <c r="H634">
-        <f t="shared" si="9"/>
+        <f>A634+1</f>
         <v>633</v>
       </c>
     </row>
@@ -24843,7 +24843,7 @@
         <v>259</v>
       </c>
       <c r="H635">
-        <f t="shared" si="9"/>
+        <f>A635+1</f>
         <v>634</v>
       </c>
     </row>
@@ -24870,7 +24870,7 @@
         <v>271</v>
       </c>
       <c r="H636">
-        <f t="shared" si="9"/>
+        <f>A636+1</f>
         <v>635</v>
       </c>
     </row>
@@ -24894,7 +24894,7 @@
         <v>219</v>
       </c>
       <c r="H637">
-        <f t="shared" si="9"/>
+        <f>A637+1</f>
         <v>636</v>
       </c>
     </row>
@@ -24918,7 +24918,7 @@
         <v>220</v>
       </c>
       <c r="H638">
-        <f t="shared" si="9"/>
+        <f>A638+1</f>
         <v>637</v>
       </c>
     </row>
@@ -24942,7 +24942,7 @@
         <v>226</v>
       </c>
       <c r="H639">
-        <f t="shared" si="9"/>
+        <f>A639+1</f>
         <v>638</v>
       </c>
     </row>
@@ -24969,7 +24969,7 @@
         <v>264</v>
       </c>
       <c r="H640">
-        <f t="shared" si="9"/>
+        <f>A640+1</f>
         <v>639</v>
       </c>
     </row>
@@ -24993,7 +24993,7 @@
         <v>222</v>
       </c>
       <c r="H641">
-        <f t="shared" si="9"/>
+        <f>A641+1</f>
         <v>640</v>
       </c>
     </row>
@@ -25020,7 +25020,7 @@
         <v>259</v>
       </c>
       <c r="H642">
-        <f t="shared" si="9"/>
+        <f>A642+1</f>
         <v>641</v>
       </c>
     </row>
@@ -25047,7 +25047,7 @@
         <v>266</v>
       </c>
       <c r="H643">
-        <f t="shared" ref="H643:H706" si="10">A643+1</f>
+        <f>A643+1</f>
         <v>642</v>
       </c>
     </row>
@@ -25074,7 +25074,7 @@
         <v>271</v>
       </c>
       <c r="H644">
-        <f t="shared" si="10"/>
+        <f>A644+1</f>
         <v>643</v>
       </c>
     </row>
@@ -25098,7 +25098,7 @@
         <v>223</v>
       </c>
       <c r="H645">
-        <f t="shared" si="10"/>
+        <f>A645+1</f>
         <v>644</v>
       </c>
     </row>
@@ -25122,7 +25122,7 @@
         <v>224</v>
       </c>
       <c r="H646">
-        <f t="shared" si="10"/>
+        <f>A646+1</f>
         <v>645</v>
       </c>
     </row>
@@ -25146,7 +25146,7 @@
         <v>225</v>
       </c>
       <c r="H647">
-        <f t="shared" si="10"/>
+        <f>A647+1</f>
         <v>646</v>
       </c>
     </row>
@@ -25173,7 +25173,7 @@
         <v>262</v>
       </c>
       <c r="H648">
-        <f t="shared" si="10"/>
+        <f>A648+1</f>
         <v>647</v>
       </c>
     </row>
@@ -25200,7 +25200,7 @@
         <v>266</v>
       </c>
       <c r="H649">
-        <f t="shared" si="10"/>
+        <f>A649+1</f>
         <v>648</v>
       </c>
     </row>
@@ -25227,7 +25227,7 @@
         <v>271</v>
       </c>
       <c r="H650">
-        <f t="shared" si="10"/>
+        <f>A650+1</f>
         <v>649</v>
       </c>
     </row>
@@ -25251,7 +25251,7 @@
         <v>221</v>
       </c>
       <c r="H651">
-        <f t="shared" si="10"/>
+        <f>A651+1</f>
         <v>650</v>
       </c>
     </row>
@@ -25278,7 +25278,7 @@
         <v>254</v>
       </c>
       <c r="H652">
-        <f t="shared" si="10"/>
+        <f>A652+1</f>
         <v>651</v>
       </c>
     </row>
@@ -25305,7 +25305,7 @@
         <v>260</v>
       </c>
       <c r="H653">
-        <f t="shared" si="10"/>
+        <f>A653+1</f>
         <v>652</v>
       </c>
     </row>
@@ -25332,7 +25332,7 @@
         <v>264</v>
       </c>
       <c r="H654">
-        <f t="shared" si="10"/>
+        <f>A654+1</f>
         <v>653</v>
       </c>
     </row>
@@ -25359,7 +25359,7 @@
         <v>273</v>
       </c>
       <c r="H655">
-        <f t="shared" si="10"/>
+        <f>A655+1</f>
         <v>654</v>
       </c>
     </row>
@@ -25386,7 +25386,7 @@
         <v>286</v>
       </c>
       <c r="H656">
-        <f t="shared" si="10"/>
+        <f>A656+1</f>
         <v>655</v>
       </c>
     </row>
@@ -25410,7 +25410,7 @@
         <v>227</v>
       </c>
       <c r="H657">
-        <f t="shared" si="10"/>
+        <f>A657+1</f>
         <v>656</v>
       </c>
     </row>
@@ -25434,7 +25434,7 @@
         <v>228</v>
       </c>
       <c r="H658">
-        <f t="shared" si="10"/>
+        <f>A658+1</f>
         <v>657</v>
       </c>
     </row>
@@ -25458,7 +25458,7 @@
         <v>229</v>
       </c>
       <c r="H659">
-        <f t="shared" si="10"/>
+        <f>A659+1</f>
         <v>658</v>
       </c>
     </row>
@@ -25485,7 +25485,7 @@
         <v>260</v>
       </c>
       <c r="H660">
-        <f t="shared" si="10"/>
+        <f>A660+1</f>
         <v>659</v>
       </c>
     </row>
@@ -25512,7 +25512,7 @@
         <v>264</v>
       </c>
       <c r="H661">
-        <f t="shared" si="10"/>
+        <f>A661+1</f>
         <v>660</v>
       </c>
     </row>
@@ -25539,7 +25539,7 @@
         <v>267</v>
       </c>
       <c r="H662">
-        <f t="shared" si="10"/>
+        <f>A662+1</f>
         <v>661</v>
       </c>
     </row>
@@ -25566,7 +25566,7 @@
         <v>273</v>
       </c>
       <c r="H663">
-        <f t="shared" si="10"/>
+        <f>A663+1</f>
         <v>662</v>
       </c>
     </row>
@@ -25593,7 +25593,7 @@
         <v>286</v>
       </c>
       <c r="H664">
-        <f t="shared" si="10"/>
+        <f>A664+1</f>
         <v>663</v>
       </c>
     </row>
@@ -25620,7 +25620,7 @@
         <v>274</v>
       </c>
       <c r="H665">
-        <f t="shared" si="10"/>
+        <f>A665+1</f>
         <v>664</v>
       </c>
     </row>
@@ -25644,7 +25644,7 @@
         <v>230</v>
       </c>
       <c r="H666">
-        <f t="shared" si="10"/>
+        <f>A666+1</f>
         <v>665</v>
       </c>
     </row>
@@ -25668,7 +25668,7 @@
         <v>231</v>
       </c>
       <c r="H667">
-        <f t="shared" si="10"/>
+        <f>A667+1</f>
         <v>666</v>
       </c>
     </row>
@@ -25695,7 +25695,7 @@
         <v>252</v>
       </c>
       <c r="H668">
-        <f t="shared" si="10"/>
+        <f>A668+1</f>
         <v>667</v>
       </c>
     </row>
@@ -25722,7 +25722,7 @@
         <v>255</v>
       </c>
       <c r="H669">
-        <f t="shared" si="10"/>
+        <f>A669+1</f>
         <v>668</v>
       </c>
     </row>
@@ -25746,7 +25746,7 @@
         <v>232</v>
       </c>
       <c r="H670">
-        <f t="shared" si="10"/>
+        <f>A670+1</f>
         <v>669</v>
       </c>
     </row>
@@ -25770,7 +25770,7 @@
         <v>233</v>
       </c>
       <c r="H671">
-        <f t="shared" si="10"/>
+        <f>A671+1</f>
         <v>670</v>
       </c>
     </row>
@@ -25794,7 +25794,7 @@
         <v>234</v>
       </c>
       <c r="H672">
-        <f t="shared" si="10"/>
+        <f>A672+1</f>
         <v>671</v>
       </c>
     </row>
@@ -25818,7 +25818,7 @@
         <v>235</v>
       </c>
       <c r="H673">
-        <f t="shared" si="10"/>
+        <f>A673+1</f>
         <v>672</v>
       </c>
     </row>
@@ -25842,7 +25842,7 @@
         <v>236</v>
       </c>
       <c r="H674">
-        <f t="shared" si="10"/>
+        <f>A674+1</f>
         <v>673</v>
       </c>
     </row>
@@ -25866,7 +25866,7 @@
         <v>36</v>
       </c>
       <c r="H675">
-        <f t="shared" si="10"/>
+        <f>A675+1</f>
         <v>674</v>
       </c>
     </row>
@@ -25893,7 +25893,7 @@
         <v>59</v>
       </c>
       <c r="H676">
-        <f t="shared" si="10"/>
+        <f>A676+1</f>
         <v>675</v>
       </c>
     </row>
@@ -25920,7 +25920,7 @@
         <v>70</v>
       </c>
       <c r="H677">
-        <f t="shared" si="10"/>
+        <f>A677+1</f>
         <v>676</v>
       </c>
     </row>
@@ -25947,7 +25947,7 @@
         <v>72</v>
       </c>
       <c r="H678">
-        <f t="shared" si="10"/>
+        <f>A678+1</f>
         <v>677</v>
       </c>
     </row>
@@ -25974,7 +25974,7 @@
         <v>77</v>
       </c>
       <c r="H679">
-        <f t="shared" si="10"/>
+        <f>A679+1</f>
         <v>678</v>
       </c>
     </row>
@@ -25998,7 +25998,7 @@
         <v>238</v>
       </c>
       <c r="H680">
-        <f t="shared" si="10"/>
+        <f>A680+1</f>
         <v>679</v>
       </c>
     </row>
@@ -26022,7 +26022,7 @@
         <v>239</v>
       </c>
       <c r="H681">
-        <f t="shared" si="10"/>
+        <f>A681+1</f>
         <v>680</v>
       </c>
     </row>
@@ -26049,7 +26049,7 @@
         <v>15</v>
       </c>
       <c r="H682">
-        <f t="shared" si="10"/>
+        <f>A682+1</f>
         <v>681</v>
       </c>
     </row>
@@ -26076,7 +26076,7 @@
         <v>271</v>
       </c>
       <c r="H683">
-        <f t="shared" si="10"/>
+        <f>A683+1</f>
         <v>682</v>
       </c>
     </row>
@@ -26100,7 +26100,7 @@
         <v>240</v>
       </c>
       <c r="H684">
-        <f t="shared" si="10"/>
+        <f>A684+1</f>
         <v>683</v>
       </c>
     </row>
@@ -26124,7 +26124,7 @@
         <v>241</v>
       </c>
       <c r="H685">
-        <f t="shared" si="10"/>
+        <f>A685+1</f>
         <v>684</v>
       </c>
     </row>
@@ -26151,7 +26151,7 @@
         <v>273</v>
       </c>
       <c r="H686">
-        <f t="shared" si="10"/>
+        <f>A686+1</f>
         <v>685</v>
       </c>
     </row>
@@ -26178,7 +26178,7 @@
         <v>286</v>
       </c>
       <c r="H687">
-        <f t="shared" si="10"/>
+        <f>A687+1</f>
         <v>686</v>
       </c>
     </row>
@@ -26205,7 +26205,7 @@
         <v>274</v>
       </c>
       <c r="H688">
-        <f t="shared" si="10"/>
+        <f>A688+1</f>
         <v>687</v>
       </c>
     </row>
@@ -26232,7 +26232,7 @@
         <v>276</v>
       </c>
       <c r="H689">
-        <f t="shared" si="10"/>
+        <f>A689+1</f>
         <v>688</v>
       </c>
     </row>
@@ -26256,7 +26256,7 @@
         <v>242</v>
       </c>
       <c r="H690">
-        <f t="shared" si="10"/>
+        <f>A690+1</f>
         <v>689</v>
       </c>
     </row>
@@ -26283,7 +26283,7 @@
         <v>275</v>
       </c>
       <c r="H691">
-        <f t="shared" si="10"/>
+        <f>A691+1</f>
         <v>690</v>
       </c>
     </row>
@@ -26307,7 +26307,7 @@
         <v>243</v>
       </c>
       <c r="H692">
-        <f t="shared" si="10"/>
+        <f>A692+1</f>
         <v>691</v>
       </c>
     </row>
@@ -26331,7 +26331,7 @@
         <v>244</v>
       </c>
       <c r="H693">
-        <f t="shared" si="10"/>
+        <f>A693+1</f>
         <v>692</v>
       </c>
     </row>
@@ -26358,7 +26358,7 @@
         <v>15</v>
       </c>
       <c r="H694">
-        <f t="shared" si="10"/>
+        <f>A694+1</f>
         <v>693</v>
       </c>
     </row>
@@ -26385,7 +26385,7 @@
         <v>275</v>
       </c>
       <c r="H695">
-        <f t="shared" si="10"/>
+        <f>A695+1</f>
         <v>694</v>
       </c>
     </row>
@@ -26409,7 +26409,7 @@
         <v>245</v>
       </c>
       <c r="H696">
-        <f t="shared" si="10"/>
+        <f>A696+1</f>
         <v>695</v>
       </c>
     </row>
@@ -26436,7 +26436,7 @@
         <v>24</v>
       </c>
       <c r="H697">
-        <f t="shared" si="10"/>
+        <f>A697+1</f>
         <v>696</v>
       </c>
     </row>
@@ -26460,7 +26460,7 @@
         <v>246</v>
       </c>
       <c r="H698">
-        <f t="shared" si="10"/>
+        <f>A698+1</f>
         <v>697</v>
       </c>
     </row>
@@ -26484,7 +26484,7 @@
         <v>247</v>
       </c>
       <c r="H699">
-        <f t="shared" si="10"/>
+        <f>A699+1</f>
         <v>698</v>
       </c>
     </row>
@@ -26508,7 +26508,7 @@
         <v>18</v>
       </c>
       <c r="H700">
-        <f t="shared" si="10"/>
+        <f>A700+1</f>
         <v>699</v>
       </c>
     </row>
@@ -26535,7 +26535,7 @@
         <v>59</v>
       </c>
       <c r="H701">
-        <f t="shared" si="10"/>
+        <f>A701+1</f>
         <v>700</v>
       </c>
     </row>
@@ -26559,7 +26559,7 @@
         <v>249</v>
       </c>
       <c r="H702">
-        <f t="shared" si="10"/>
+        <f>A702+1</f>
         <v>701</v>
       </c>
     </row>
@@ -26583,7 +26583,7 @@
         <v>250</v>
       </c>
       <c r="H703">
-        <f t="shared" si="10"/>
+        <f>A703+1</f>
         <v>702</v>
       </c>
     </row>
@@ -26610,7 +26610,7 @@
         <v>15</v>
       </c>
       <c r="H704">
-        <f t="shared" si="10"/>
+        <f>A704+1</f>
         <v>703</v>
       </c>
     </row>
@@ -26634,7 +26634,7 @@
         <v>251</v>
       </c>
       <c r="H705">
-        <f t="shared" si="10"/>
+        <f>A705+1</f>
         <v>704</v>
       </c>
     </row>
@@ -26658,7 +26658,7 @@
         <v>252</v>
       </c>
       <c r="H706">
-        <f t="shared" si="10"/>
+        <f>A706+1</f>
         <v>705</v>
       </c>
     </row>
@@ -26682,7 +26682,7 @@
         <v>253</v>
       </c>
       <c r="H707">
-        <f t="shared" ref="H707:H738" si="11">A707+1</f>
+        <f>A707+1</f>
         <v>706</v>
       </c>
     </row>
@@ -26709,7 +26709,7 @@
         <v>15</v>
       </c>
       <c r="H708">
-        <f t="shared" si="11"/>
+        <f>A708+1</f>
         <v>707</v>
       </c>
     </row>
@@ -26733,7 +26733,7 @@
         <v>254</v>
       </c>
       <c r="H709">
-        <f t="shared" si="11"/>
+        <f>A709+1</f>
         <v>708</v>
       </c>
     </row>
@@ -26757,7 +26757,7 @@
         <v>255</v>
       </c>
       <c r="H710">
-        <f t="shared" si="11"/>
+        <f>A710+1</f>
         <v>709</v>
       </c>
     </row>
@@ -26781,7 +26781,7 @@
         <v>256</v>
       </c>
       <c r="H711">
-        <f t="shared" si="11"/>
+        <f>A711+1</f>
         <v>710</v>
       </c>
     </row>
@@ -26808,7 +26808,7 @@
         <v>24</v>
       </c>
       <c r="H712">
-        <f t="shared" si="11"/>
+        <f>A712+1</f>
         <v>711</v>
       </c>
     </row>
@@ -26832,7 +26832,7 @@
         <v>257</v>
       </c>
       <c r="H713">
-        <f t="shared" si="11"/>
+        <f>A713+1</f>
         <v>712</v>
       </c>
     </row>
@@ -26856,7 +26856,7 @@
         <v>258</v>
       </c>
       <c r="H714">
-        <f t="shared" si="11"/>
+        <f>A714+1</f>
         <v>713</v>
       </c>
     </row>
@@ -26880,7 +26880,7 @@
         <v>259</v>
       </c>
       <c r="H715">
-        <f t="shared" si="11"/>
+        <f>A715+1</f>
         <v>714</v>
       </c>
     </row>
@@ -26904,7 +26904,7 @@
         <v>260</v>
       </c>
       <c r="H716">
-        <f t="shared" si="11"/>
+        <f>A716+1</f>
         <v>715</v>
       </c>
     </row>
@@ -26928,7 +26928,7 @@
         <v>261</v>
       </c>
       <c r="H717">
-        <f t="shared" si="11"/>
+        <f>A717+1</f>
         <v>716</v>
       </c>
     </row>
@@ -26952,7 +26952,7 @@
         <v>262</v>
       </c>
       <c r="H718">
-        <f t="shared" si="11"/>
+        <f>A718+1</f>
         <v>717</v>
       </c>
     </row>
@@ -26976,7 +26976,7 @@
         <v>263</v>
       </c>
       <c r="H719">
-        <f t="shared" si="11"/>
+        <f>A719+1</f>
         <v>718</v>
       </c>
     </row>
@@ -27003,7 +27003,7 @@
         <v>24</v>
       </c>
       <c r="H720">
-        <f t="shared" si="11"/>
+        <f>A720+1</f>
         <v>719</v>
       </c>
     </row>
@@ -27027,7 +27027,7 @@
         <v>264</v>
       </c>
       <c r="H721">
-        <f t="shared" si="11"/>
+        <f>A721+1</f>
         <v>720</v>
       </c>
     </row>
@@ -27051,7 +27051,7 @@
         <v>265</v>
       </c>
       <c r="H722">
-        <f t="shared" si="11"/>
+        <f>A722+1</f>
         <v>721</v>
       </c>
     </row>
@@ -27075,7 +27075,7 @@
         <v>266</v>
       </c>
       <c r="H723">
-        <f t="shared" si="11"/>
+        <f>A723+1</f>
         <v>722</v>
       </c>
     </row>
@@ -27099,7 +27099,7 @@
         <v>267</v>
       </c>
       <c r="H724">
-        <f t="shared" si="11"/>
+        <f>A724+1</f>
         <v>723</v>
       </c>
     </row>
@@ -27123,7 +27123,7 @@
         <v>268</v>
       </c>
       <c r="H725">
-        <f t="shared" si="11"/>
+        <f>A725+1</f>
         <v>724</v>
       </c>
     </row>
@@ -27150,7 +27150,7 @@
         <v>24</v>
       </c>
       <c r="H726">
-        <f t="shared" si="11"/>
+        <f>A726+1</f>
         <v>725</v>
       </c>
     </row>
@@ -27174,7 +27174,7 @@
         <v>269</v>
       </c>
       <c r="H727">
-        <f t="shared" si="11"/>
+        <f>A727+1</f>
         <v>726</v>
       </c>
     </row>
@@ -27201,7 +27201,7 @@
         <v>24</v>
       </c>
       <c r="H728">
-        <f t="shared" si="11"/>
+        <f>A728+1</f>
         <v>727</v>
       </c>
     </row>
@@ -27225,7 +27225,7 @@
         <v>270</v>
       </c>
       <c r="H729">
-        <f t="shared" si="11"/>
+        <f>A729+1</f>
         <v>728</v>
       </c>
     </row>
@@ -27249,7 +27249,7 @@
         <v>271</v>
       </c>
       <c r="H730">
-        <f t="shared" si="11"/>
+        <f>A730+1</f>
         <v>729</v>
       </c>
     </row>
@@ -27273,7 +27273,7 @@
         <v>272</v>
       </c>
       <c r="H731">
-        <f t="shared" si="11"/>
+        <f>A731+1</f>
         <v>730</v>
       </c>
     </row>
@@ -27300,7 +27300,7 @@
         <v>24</v>
       </c>
       <c r="H732">
-        <f t="shared" si="11"/>
+        <f>A732+1</f>
         <v>731</v>
       </c>
     </row>
@@ -27324,7 +27324,7 @@
         <v>273</v>
       </c>
       <c r="H733">
-        <f t="shared" si="11"/>
+        <f>A733+1</f>
         <v>732</v>
       </c>
     </row>
@@ -27348,7 +27348,7 @@
         <v>286</v>
       </c>
       <c r="H734">
-        <f t="shared" si="11"/>
+        <f>A734+1</f>
         <v>733</v>
       </c>
     </row>
@@ -27372,7 +27372,7 @@
         <v>274</v>
       </c>
       <c r="H735">
-        <f t="shared" si="11"/>
+        <f>A735+1</f>
         <v>734</v>
       </c>
     </row>
@@ -27396,7 +27396,7 @@
         <v>275</v>
       </c>
       <c r="H736">
-        <f t="shared" si="11"/>
+        <f>A736+1</f>
         <v>735</v>
       </c>
     </row>
@@ -27420,7 +27420,7 @@
         <v>276</v>
       </c>
       <c r="H737">
-        <f t="shared" si="11"/>
+        <f>A737+1</f>
         <v>736</v>
       </c>
     </row>
@@ -27444,7 +27444,7 @@
         <v>277</v>
       </c>
       <c r="H738">
-        <f t="shared" si="11"/>
+        <f>A738+1</f>
         <v>737</v>
       </c>
     </row>
@@ -27458,7 +27458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -35065,8 +35065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BA4A27-5B66-45EC-9E0C-6280F908EA0A}">
   <dimension ref="A1:F233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="G205" sqref="G205"/>
+    <sheetView topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156:XFD156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
